--- a/Finances/Projections.xlsx
+++ b/Finances/Projections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfrancis\OneDrive - Hearst\Documents\Custom Office Templates\dogen\Finances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="11_376AD7E749603A025F3A1731D194D6F8EB21230F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D2416168-A50E-441C-BA7E-04501C912CF8}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="11_376AD7E749603A025F3A1731D194D6F8EB21230F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CCA8126D-C73F-4A38-805F-95E6A3904097}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId21"/>
-    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="AddLoans">'1-StartingPoint'!$D$36</definedName>
@@ -4411,11 +4410,56 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="12" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="43" fontId="50" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="50" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4428,6 +4472,9 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="12" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="51" fillId="12" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4445,14 +4492,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -4493,42 +4532,6 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4599,10 +4602,6 @@
     <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Calculation" xfId="9" builtinId="22" customBuiltin="1"/>
@@ -4620,13 +4619,6 @@
     <cellStyle name="Title 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="93">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF89E53"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4949,6 +4941,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFE043"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF89E53"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5934,7 +5933,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>742134</xdr:colOff>
+      <xdr:colOff>745944</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>36739</xdr:rowOff>
     </xdr:from>
@@ -5942,7 +5941,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1031713</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>173900</xdr:rowOff>
+      <xdr:rowOff>170090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6776,6 +6775,7 @@
       <sheetName val="Eating Area"/>
       <sheetName val="decor"/>
       <sheetName val="Initial"/>
+      <sheetName val="Chart1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -6790,97 +6790,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="3">
-          <cell r="H3">
-            <v>24.509803921568626</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>22.058823529411764</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5">
-            <v>22.058823529411764</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>57400</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="13">
-          <cell r="C13">
-            <v>35225</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="23">
-          <cell r="C23">
-            <v>4290</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="21">
-          <cell r="C21">
-            <v>33980</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Key_Assumptions_draft"/>
-      <sheetName val="Chart1"/>
-      <sheetName val="Revenue_Profit_Balance"/>
-      <sheetName val="Funding_And_Connections"/>
-      <sheetName val="Comprehensive"/>
-      <sheetName val="Overhead"/>
-      <sheetName val="Net_And_Analysis"/>
-      <sheetName val="Gross"/>
-      <sheetName val="Operating_Costs"/>
-      <sheetName val="food"/>
-      <sheetName val="employees"/>
-      <sheetName val="Leasehold_Improvements"/>
-      <sheetName val="PCs"/>
-      <sheetName val="Equipment"/>
-      <sheetName val="Furniture_and_Fixtures"/>
-      <sheetName val="Dance_Studio"/>
-      <sheetName val="Kitchen"/>
-      <sheetName val="Liabilities"/>
-      <sheetName val="Eating Area"/>
-      <sheetName val="decor"/>
-      <sheetName val="Initial"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8">
@@ -6916,17 +6825,52 @@
         </row>
       </sheetData>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="10">
+        <row r="3">
+          <cell r="H3">
+            <v>24.509803921568626</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>22.058823529411764</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>22.058823529411764</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="13">
+          <cell r="C13">
+            <v>35225</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="13">
+        <row r="23">
+          <cell r="C23">
+            <v>4290</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="21">
+          <cell r="C21">
+            <v>33980</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7260,7 +7204,9 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.5"/>
   <cols>
@@ -7312,13 +7258,13 @@
       <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B3" s="572" t="s">
+      <c r="B3" s="573" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="572"/>
-      <c r="D3" s="572"/>
-      <c r="E3" s="572"/>
-      <c r="F3" s="572"/>
+      <c r="C3" s="573"/>
+      <c r="D3" s="573"/>
+      <c r="E3" s="573"/>
+      <c r="F3" s="573"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
@@ -7374,12 +7320,12 @@
       <c r="M6" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B8" s="572" t="s">
+      <c r="B8" s="573" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="572"/>
-      <c r="D8" s="572"/>
-      <c r="E8" s="572"/>
+      <c r="C8" s="573"/>
+      <c r="D8" s="573"/>
+      <c r="E8" s="573"/>
       <c r="I8"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.5">
@@ -7560,9 +7506,9 @@
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="B41" s="572"/>
-      <c r="C41" s="572"/>
-      <c r="D41" s="572"/>
+      <c r="B41" s="573"/>
+      <c r="C41" s="573"/>
+      <c r="D41" s="573"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.5">
       <c r="B43" s="2"/>
@@ -7624,10 +7570,10 @@
     <row r="1" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="71"/>
-      <c r="B2" s="617" t="s">
+      <c r="B2" s="618" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="617"/>
+      <c r="C2" s="618"/>
       <c r="E2" s="217"/>
       <c r="H2" s="217"/>
       <c r="I2" s="63"/>
@@ -8946,37 +8892,37 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C25:N25 C27:N28">
-    <cfRule type="containsBlanks" dxfId="50" priority="27" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="49" priority="27" stopIfTrue="1">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:O29">
-    <cfRule type="expression" dxfId="49" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="13" stopIfTrue="1">
       <formula>ISERROR(C29)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:N31 D8:N8 D31:N32 C24:O24">
-    <cfRule type="expression" dxfId="48" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="12" stopIfTrue="1">
       <formula>ISERROR(C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:N33">
-    <cfRule type="expression" dxfId="47" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="10" stopIfTrue="1">
       <formula>ISERROR(C33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O34">
-    <cfRule type="expression" dxfId="46" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="8" stopIfTrue="1">
       <formula>ISERROR(O30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:N32">
-    <cfRule type="containsBlanks" dxfId="45" priority="4">
+    <cfRule type="containsBlanks" dxfId="44" priority="4">
       <formula>LEN(TRIM(C32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:N17">
-    <cfRule type="containsBlanks" dxfId="44" priority="26" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="43" priority="26" stopIfTrue="1">
       <formula>LEN(TRIM(C17))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11422,82 +11368,82 @@
   <sheetProtection password="CC3D" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C24:N24 C26:N27">
-    <cfRule type="containsBlanks" dxfId="43" priority="23" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="42" priority="23" stopIfTrue="1">
       <formula>LEN(TRIM(C24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:O28">
-    <cfRule type="expression" dxfId="42" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="18" stopIfTrue="1">
       <formula>ISERROR(C28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:N30 D7:N7 D31:N31 C23:O23">
-    <cfRule type="expression" dxfId="41" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
       <formula>ISERROR(C7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:N32">
-    <cfRule type="expression" dxfId="40" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="16" stopIfTrue="1">
       <formula>ISERROR(C32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:N31">
-    <cfRule type="containsBlanks" dxfId="39" priority="14">
+    <cfRule type="containsBlanks" dxfId="38" priority="14">
       <formula>LEN(TRIM(C31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:AA24 P26:AA27">
-    <cfRule type="containsBlanks" dxfId="38" priority="25" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="37" priority="25" stopIfTrue="1">
       <formula>LEN(TRIM(P24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:AB28 AB29">
-    <cfRule type="expression" dxfId="37" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="11" stopIfTrue="1">
       <formula>ISERROR(P28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:AA30 Q31:AA31 Q7:AA7">
-    <cfRule type="expression" dxfId="36" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
       <formula>ISERROR(P7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:AA32">
-    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
       <formula>ISERROR(P32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30:AB33">
-    <cfRule type="expression" dxfId="34" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="8" stopIfTrue="1">
       <formula>ISERROR(AB30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:AA31">
-    <cfRule type="containsBlanks" dxfId="33" priority="7">
+    <cfRule type="containsBlanks" dxfId="32" priority="7">
       <formula>LEN(TRIM(P31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:AA23">
-    <cfRule type="expression" dxfId="32" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
       <formula>ISERROR(P23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="expression" dxfId="31" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
       <formula>ISERROR(O29)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:N16">
-    <cfRule type="containsBlanks" dxfId="30" priority="24" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="29" priority="24" stopIfTrue="1">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:AA16">
-    <cfRule type="containsBlanks" dxfId="29" priority="22" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="28" priority="22" stopIfTrue="1">
       <formula>LEN(TRIM(P16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31">
-    <cfRule type="expression" dxfId="28" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
       <formula>ISERROR(O31)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11561,10 +11507,10 @@
       <c r="C1" s="230"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="618" t="s">
+      <c r="B2" s="619" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="618"/>
+      <c r="C2" s="619"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="231"/>
@@ -11575,21 +11521,21 @@
       <c r="B4" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="619" t="s">
+      <c r="C4" s="620" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="619"/>
+      <c r="D4" s="620"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="333" t="str">
         <f>IF(ISBLANK(Directions!C6), "Owner", Directions!C6)</f>
         <v>Thomas Francis</v>
       </c>
-      <c r="C5" s="620" t="str">
+      <c r="C5" s="621" t="str">
         <f>IF(ISBLANK(Directions!D6), "Company 1", Directions!D6)</f>
         <v>The Soshow</v>
       </c>
-      <c r="D5" s="620"/>
+      <c r="D5" s="621"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="234"/>
@@ -13672,55 +13618,55 @@
       </c>
       <c r="C47" s="41">
         <f>+'Amortization&amp;Depreciation'!C138+'Amortization&amp;Depreciation'!C149</f>
-        <v>3594.4444444444453</v>
+        <v>2000</v>
       </c>
       <c r="D47" s="41">
         <f>+'Amortization&amp;Depreciation'!D138+'Amortization&amp;Depreciation'!D149</f>
-        <v>3594.4444444444453</v>
+        <v>2000</v>
       </c>
       <c r="E47" s="41">
         <f>+'Amortization&amp;Depreciation'!E138+'Amortization&amp;Depreciation'!E149</f>
-        <v>3594.4444444444453</v>
+        <v>2000</v>
       </c>
       <c r="F47" s="41">
         <f>+'Amortization&amp;Depreciation'!F138+'Amortization&amp;Depreciation'!F149</f>
-        <v>3594.4444444444453</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="41">
         <f>+'Amortization&amp;Depreciation'!G138+'Amortization&amp;Depreciation'!G149</f>
-        <v>3594.4444444444453</v>
+        <v>2000</v>
       </c>
       <c r="H47" s="41">
         <f>+'Amortization&amp;Depreciation'!H138+'Amortization&amp;Depreciation'!H149</f>
-        <v>3594.4444444444453</v>
+        <v>2000</v>
       </c>
       <c r="I47" s="41">
         <f>+'Amortization&amp;Depreciation'!I138+'Amortization&amp;Depreciation'!I149</f>
-        <v>3594.4444444444453</v>
+        <v>2000</v>
       </c>
       <c r="J47" s="41">
         <f>+'Amortization&amp;Depreciation'!J138+'Amortization&amp;Depreciation'!J149</f>
-        <v>3594.4444444444453</v>
+        <v>2000</v>
       </c>
       <c r="K47" s="41">
         <f>+'Amortization&amp;Depreciation'!K138+'Amortization&amp;Depreciation'!K149</f>
-        <v>3594.4444444444453</v>
+        <v>2000</v>
       </c>
       <c r="L47" s="41">
         <f>+'Amortization&amp;Depreciation'!L138+'Amortization&amp;Depreciation'!L149</f>
-        <v>3594.4444444444453</v>
+        <v>2000</v>
       </c>
       <c r="M47" s="41">
         <f>+'Amortization&amp;Depreciation'!M138+'Amortization&amp;Depreciation'!M149</f>
-        <v>3594.4444444444453</v>
+        <v>2000</v>
       </c>
       <c r="N47" s="41">
         <f>+'Amortization&amp;Depreciation'!N138+'Amortization&amp;Depreciation'!N149</f>
-        <v>3594.4444444444453</v>
+        <v>2000</v>
       </c>
       <c r="O47" s="48">
         <f>SUM(C47:N47)</f>
-        <v>43133.333333333343</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.35">
@@ -14203,55 +14149,55 @@
       </c>
       <c r="C57" s="41">
         <f>SUM(C47:C56)</f>
-        <v>4797.8611111111122</v>
+        <v>3203.416666666667</v>
       </c>
       <c r="D57" s="41">
         <f t="shared" ref="D57:N57" si="9">SUM(D47:D56)</f>
-        <v>4797.8611111111122</v>
+        <v>3203.416666666667</v>
       </c>
       <c r="E57" s="41">
         <f t="shared" si="9"/>
-        <v>4797.8611111111122</v>
+        <v>3203.416666666667</v>
       </c>
       <c r="F57" s="41">
         <f t="shared" si="9"/>
-        <v>4797.8611111111122</v>
+        <v>3203.416666666667</v>
       </c>
       <c r="G57" s="41">
         <f t="shared" si="9"/>
-        <v>4797.8611111111122</v>
+        <v>3203.416666666667</v>
       </c>
       <c r="H57" s="41">
         <f t="shared" si="9"/>
-        <v>4797.8611111111122</v>
+        <v>3203.416666666667</v>
       </c>
       <c r="I57" s="41">
         <f t="shared" si="9"/>
-        <v>4797.8611111111122</v>
+        <v>3203.416666666667</v>
       </c>
       <c r="J57" s="41">
         <f t="shared" si="9"/>
-        <v>4797.8611111111122</v>
+        <v>3203.416666666667</v>
       </c>
       <c r="K57" s="41">
         <f t="shared" si="9"/>
-        <v>4797.8611111111122</v>
+        <v>3203.416666666667</v>
       </c>
       <c r="L57" s="41">
         <f t="shared" si="9"/>
-        <v>4797.8611111111122</v>
+        <v>3203.416666666667</v>
       </c>
       <c r="M57" s="41">
         <f t="shared" si="9"/>
-        <v>4797.8611111111122</v>
+        <v>3203.416666666667</v>
       </c>
       <c r="N57" s="41">
         <f t="shared" si="9"/>
-        <v>4797.8611111111122</v>
+        <v>3203.416666666667</v>
       </c>
       <c r="O57" s="48">
         <f t="shared" si="8"/>
-        <v>57574.333333333336</v>
+        <v>38441.000000000007</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -14260,55 +14206,55 @@
       </c>
       <c r="C58" s="48">
         <f t="shared" ref="C58:N58" si="10">C24-C25-C44-C57</f>
-        <v>-21508.857026143793</v>
+        <v>-19914.412581699347</v>
       </c>
       <c r="D58" s="48">
         <f t="shared" si="10"/>
-        <v>-18208.857026143793</v>
+        <v>-16614.412581699347</v>
       </c>
       <c r="E58" s="48">
         <f t="shared" si="10"/>
-        <v>-14908.857026143793</v>
+        <v>-13314.412581699347</v>
       </c>
       <c r="F58" s="48">
         <f t="shared" si="10"/>
-        <v>-11608.857026143791</v>
+        <v>-10014.412581699346</v>
       </c>
       <c r="G58" s="48">
         <f t="shared" si="10"/>
-        <v>-8308.857026143789</v>
+        <v>-6714.4125816993446</v>
       </c>
       <c r="H58" s="48">
         <f t="shared" si="10"/>
-        <v>-5008.8570261437899</v>
+        <v>-3414.4125816993446</v>
       </c>
       <c r="I58" s="48">
         <f t="shared" si="10"/>
-        <v>-1708.8570261437899</v>
+        <v>-114.41258169934463</v>
       </c>
       <c r="J58" s="48">
         <f t="shared" si="10"/>
-        <v>2591.1429738562101</v>
+        <v>4185.5874183006554</v>
       </c>
       <c r="K58" s="48">
         <f t="shared" si="10"/>
-        <v>6891.1429738562101</v>
+        <v>8485.5874183006563</v>
       </c>
       <c r="L58" s="48">
         <f t="shared" si="10"/>
-        <v>11191.142973856211</v>
+        <v>12785.587418300656</v>
       </c>
       <c r="M58" s="48">
         <f t="shared" si="10"/>
-        <v>15491.142973856204</v>
+        <v>17085.587418300649</v>
       </c>
       <c r="N58" s="48">
         <f t="shared" si="10"/>
-        <v>19791.142973856204</v>
+        <v>21385.587418300649</v>
       </c>
       <c r="O58" s="48">
         <f t="shared" si="8"/>
-        <v>-25306.284313725479</v>
+        <v>-6172.9509803921756</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -14374,55 +14320,55 @@
       </c>
       <c r="C60" s="48">
         <f t="shared" ref="C60:M60" si="11">C58-C59</f>
-        <v>-21508.857026143793</v>
+        <v>-19914.412581699347</v>
       </c>
       <c r="D60" s="48">
         <f t="shared" si="11"/>
-        <v>-18208.857026143793</v>
+        <v>-16614.412581699347</v>
       </c>
       <c r="E60" s="48">
         <f t="shared" si="11"/>
-        <v>-14908.857026143793</v>
+        <v>-13314.412581699347</v>
       </c>
       <c r="F60" s="48">
         <f t="shared" si="11"/>
-        <v>-11608.857026143791</v>
+        <v>-10014.412581699346</v>
       </c>
       <c r="G60" s="48">
         <f t="shared" si="11"/>
-        <v>-8308.857026143789</v>
+        <v>-6714.4125816993446</v>
       </c>
       <c r="H60" s="48">
         <f t="shared" si="11"/>
-        <v>-5008.8570261437899</v>
+        <v>-3414.4125816993446</v>
       </c>
       <c r="I60" s="48">
         <f t="shared" si="11"/>
-        <v>-1708.8570261437899</v>
+        <v>-114.41258169934463</v>
       </c>
       <c r="J60" s="48">
         <f t="shared" si="11"/>
-        <v>2591.1429738562101</v>
+        <v>4185.5874183006554</v>
       </c>
       <c r="K60" s="48">
         <f t="shared" si="11"/>
-        <v>6891.1429738562101</v>
+        <v>8485.5874183006563</v>
       </c>
       <c r="L60" s="48">
         <f t="shared" si="11"/>
-        <v>11191.142973856211</v>
+        <v>12785.587418300656</v>
       </c>
       <c r="M60" s="48">
         <f t="shared" si="11"/>
-        <v>15491.142973856204</v>
+        <v>17085.587418300649</v>
       </c>
       <c r="N60" s="48">
         <f t="shared" ref="N60" si="12">N58-N59</f>
-        <v>19791.142973856204</v>
+        <v>21385.587418300649</v>
       </c>
       <c r="O60" s="48">
         <f>SUM(C60:N60)</f>
-        <v>-25306.284313725479</v>
+        <v>-6172.9509803921756</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -14597,7 +14543,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C59:N59">
-    <cfRule type="containsBlanks" dxfId="27" priority="1">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14623,9 +14569,7 @@
   </sheetPr>
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14652,18 +14596,18 @@
       <c r="J1" s="63"/>
     </row>
     <row r="2" spans="2:11" s="251" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="618" t="s">
+      <c r="B2" s="619" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="618"/>
+      <c r="C2" s="619"/>
       <c r="D2" s="249"/>
       <c r="E2" s="202"/>
       <c r="F2" s="250"/>
       <c r="G2" s="202"/>
       <c r="H2" s="249"/>
-      <c r="I2" s="621"/>
-      <c r="J2" s="621"/>
-      <c r="K2" s="621"/>
+      <c r="I2" s="622"/>
+      <c r="J2" s="622"/>
+      <c r="K2" s="622"/>
     </row>
     <row r="3" spans="2:11" s="251" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="252"/>
@@ -14673,9 +14617,9 @@
       <c r="F3" s="250"/>
       <c r="G3" s="202"/>
       <c r="H3" s="249"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="621"/>
+      <c r="I3" s="622"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="622"/>
     </row>
     <row r="4" spans="2:11" s="251" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="233" t="s">
@@ -15619,17 +15563,17 @@
       </c>
       <c r="C46" s="439">
         <f>+'Amortization&amp;Depreciation'!O138+'Amortization&amp;Depreciation'!O149</f>
-        <v>43133.333333333328</v>
+        <v>23999.999999999996</v>
       </c>
       <c r="D46" s="430"/>
       <c r="E46" s="439">
         <f>+'Amortization&amp;Depreciation'!O141+'Amortization&amp;Depreciation'!O152</f>
-        <v>43133.333333333328</v>
+        <v>23999.999999999996</v>
       </c>
       <c r="F46" s="431"/>
       <c r="G46" s="439">
         <f>+'Amortization&amp;Depreciation'!O144+'Amortization&amp;Depreciation'!O155</f>
-        <v>43133.333333333328</v>
+        <v>23999.999999999996</v>
       </c>
       <c r="H46" s="430"/>
       <c r="I46" s="251"/>
@@ -15840,27 +15784,27 @@
       </c>
       <c r="C56" s="184">
         <f>SUM(C46:C55)</f>
-        <v>57574.333333333328</v>
+        <v>38440.999999999993</v>
       </c>
       <c r="D56" s="268">
         <f>IF(C14=0,0,C56/C14)</f>
-        <v>0.2113595203132648</v>
+        <v>0.1411196769456681</v>
       </c>
       <c r="E56" s="184">
         <f>SUM(E46:E55)</f>
-        <v>57574.333333333328</v>
+        <v>38440.999999999993</v>
       </c>
       <c r="F56" s="268">
         <f>IF(E14=0,0,E56/E14)</f>
-        <v>0.19214501846660437</v>
+        <v>0.12829061540515282</v>
       </c>
       <c r="G56" s="184">
         <f>SUM(G46:G55)</f>
-        <v>57574.333333333328</v>
+        <v>38440.999999999993</v>
       </c>
       <c r="H56" s="268">
         <f>IF(G14=0,0,G56/G14)</f>
-        <v>0.17467728951509487</v>
+        <v>0.11662783218650256</v>
       </c>
       <c r="I56" s="251"/>
       <c r="J56" s="251"/>
@@ -15872,27 +15816,27 @@
       </c>
       <c r="C57" s="48">
         <f>C23-C24-C43-C56</f>
-        <v>-25306.284313725497</v>
+        <v>-6172.950980392161</v>
       </c>
       <c r="D57" s="268">
         <f>IF(C14=0,0,C57/C14)</f>
-        <v>-9.2901190579021645E-2</v>
+        <v>-2.2661347211424966E-2</v>
       </c>
       <c r="E57" s="48">
         <f>E23-E24-E43-E56</f>
-        <v>-5252.5978431372641</v>
+        <v>13880.735490196072</v>
       </c>
       <c r="F57" s="268">
         <f>IF(E14=0,0,E57/E14)</f>
-        <v>-1.7529695111257723E-2</v>
+        <v>4.6324707950193805E-2</v>
       </c>
       <c r="G57" s="48">
         <f>G23-G24-G43-G56</f>
-        <v>17308.652121568637</v>
+        <v>36441.985454901973</v>
       </c>
       <c r="H57" s="268">
         <f>IF(G14=0,0,G57/G14)</f>
-        <v>5.2513477147026845E-2</v>
+        <v>0.11056293447561914</v>
       </c>
       <c r="I57" s="251"/>
       <c r="J57" s="251"/>
@@ -15927,27 +15871,27 @@
       </c>
       <c r="C59" s="48">
         <f>C57-C58</f>
-        <v>-25306.284313725497</v>
+        <v>-6172.950980392161</v>
       </c>
       <c r="D59" s="268">
         <f>IF(C14=0,0,C59/C14)</f>
-        <v>-9.2901190579021645E-2</v>
+        <v>-2.2661347211424966E-2</v>
       </c>
       <c r="E59" s="48">
         <f>E57-E58</f>
-        <v>-5252.5978431372641</v>
+        <v>13880.735490196072</v>
       </c>
       <c r="F59" s="268">
         <f>IF(E14=0,0,E59/E14)</f>
-        <v>-1.7529695111257723E-2</v>
+        <v>4.6324707950193805E-2</v>
       </c>
       <c r="G59" s="48">
         <f>G57-G58</f>
-        <v>17308.652121568637</v>
+        <v>36441.985454901973</v>
       </c>
       <c r="H59" s="268">
         <f>IF(G14=0,0,G59/G14)</f>
-        <v>5.2513477147026845E-2</v>
+        <v>0.11056293447561914</v>
       </c>
       <c r="I59" s="251"/>
       <c r="J59" s="251"/>
@@ -16729,37 +16673,37 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C14:H15 C9:D9 C25:H42 C10:C13 F9 H9">
-    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="30" stopIfTrue="1">
       <formula>ISERROR(C9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58 E58 G58">
-    <cfRule type="containsBlanks" dxfId="25" priority="20">
+    <cfRule type="containsBlanks" dxfId="24" priority="20">
       <formula>LEN(TRIM(C58))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
       <formula>ISERROR(C17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E13">
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="4" stopIfTrue="1">
       <formula>ISERROR(E9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G13">
-    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>ISERROR(G9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E21">
-    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
       <formula>ISERROR(E17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G21">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>ISERROR(G17)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16968,11 +16912,11 @@
       </c>
       <c r="D12" s="222">
         <f>+'Amortization&amp;Depreciation'!C132-'Amortization&amp;Depreciation'!C133</f>
-        <v>85933.333333333343</v>
+        <v>47666.666666666672</v>
       </c>
       <c r="E12" s="222">
         <f>+D12-'Amortization&amp;Depreciation'!C133</f>
-        <v>42966.666666666664</v>
+        <v>23833.333333333339</v>
       </c>
       <c r="F12" s="222">
         <f>+E12-'Amortization&amp;Depreciation'!C133</f>
@@ -17012,11 +16956,11 @@
       </c>
       <c r="D14" s="227">
         <f>SUM(D9:D13)</f>
-        <v>298518.04901960777</v>
+        <v>260251.38235294112</v>
       </c>
       <c r="E14" s="227">
         <f>SUM(E9:E13)</f>
-        <v>307706.45117647061</v>
+        <v>288573.11784313724</v>
       </c>
       <c r="F14" s="227">
         <f>SUM(F9:F13)</f>
@@ -17238,11 +17182,11 @@
       </c>
       <c r="D26" s="74">
         <f>INT(D24+D14-D25)</f>
-        <v>367572</v>
+        <v>329305</v>
       </c>
       <c r="E26" s="74">
         <f t="shared" ref="E26:F26" si="2">INT(E24+E14-E25)</f>
-        <v>362319</v>
+        <v>343186</v>
       </c>
       <c r="F26" s="74">
         <f t="shared" si="2"/>
@@ -17472,15 +17416,15 @@
       </c>
       <c r="D39" s="222">
         <f>OwnerEquity+OutsideInvest</f>
-        <v>392878.33333333337</v>
+        <v>335478.33333333337</v>
       </c>
       <c r="E39" s="222">
         <f>OwnerEquity+OutsideInvest</f>
-        <v>392878.33333333337</v>
+        <v>335478.33333333337</v>
       </c>
       <c r="F39" s="222">
         <f>OwnerEquity+OutsideInvest</f>
-        <v>392878.33333333337</v>
+        <v>335478.33333333337</v>
       </c>
       <c r="I39" s="71"/>
     </row>
@@ -17492,15 +17436,15 @@
       </c>
       <c r="D40" s="222">
         <f>'7b-IncomeStatementYrs1-3'!C59</f>
-        <v>-25306.284313725497</v>
+        <v>-6172.950980392161</v>
       </c>
       <c r="E40" s="222">
         <f>D40+NetIncomeY2</f>
-        <v>-30558.882156862761</v>
+        <v>7707.7845098039106</v>
       </c>
       <c r="F40" s="222">
         <f>E40+NetIncomeY3</f>
-        <v>-13250.230035294124</v>
+        <v>44149.769964705883</v>
       </c>
       <c r="I40" s="71"/>
     </row>
@@ -17532,11 +17476,11 @@
       </c>
       <c r="D42" s="227">
         <f>+D39+D40-D41</f>
-        <v>367572.04901960789</v>
+        <v>329305.3823529412</v>
       </c>
       <c r="E42" s="227">
         <f t="shared" ref="E42:F42" si="3">+E39+E40-E41</f>
-        <v>362319.45117647061</v>
+        <v>343186.1178431373</v>
       </c>
       <c r="F42" s="227">
         <f t="shared" si="3"/>
@@ -17552,11 +17496,11 @@
       </c>
       <c r="D43" s="74">
         <f>INT(D37+D42)</f>
-        <v>367572</v>
+        <v>329305</v>
       </c>
       <c r="E43" s="74">
         <f t="shared" ref="E43:F43" si="4">INT(E37+E42)</f>
-        <v>362319</v>
+        <v>343186</v>
       </c>
       <c r="F43" s="74">
         <f t="shared" si="4"/>
@@ -17576,7 +17520,7 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="71"/>
       <c r="B45" s="71"/>
-      <c r="C45" s="622" t="s">
+      <c r="C45" s="623" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="74">
@@ -17596,7 +17540,7 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="71"/>
       <c r="B46" s="71"/>
-      <c r="C46" s="622"/>
+      <c r="C46" s="623"/>
       <c r="D46" s="95" t="str">
         <f>IF(D45=0,"Balanced!", "Warning: Not Balanced")</f>
         <v>Balanced!</v>
@@ -17619,65 +17563,65 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D32:F37">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="34" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="34" stopIfTrue="1">
       <formula>LEN(TRIM(D32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="18" priority="35" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="35" stopIfTrue="1">
       <formula>LEN(TRIM(D32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:F37">
-    <cfRule type="cellIs" dxfId="17" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="33" stopIfTrue="1" operator="equal">
       <formula>#DIV/0!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:F9 D14 D11:F13 D25:F25 D17:F23">
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>ISERROR(D9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:F43">
-    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
       <formula>ISERROR(D43)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:F45">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>ISERROR(D45)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:F30">
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
       <formula>ISERROR(D30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:F26">
-    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>ISERROR(D26)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:F24">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
       <formula>ISERROR(D24)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D10 E10:F10">
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
       <formula>ISERROR(D9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:F14">
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>ISERROR(E14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:F31">
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>ISERROR(D31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:F46">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Warning:">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Warning:">
       <formula>NOT(ISERROR(SEARCH("Warning:",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17774,10 +17718,10 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="610" t="s">
+      <c r="B8" s="611" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="610"/>
+      <c r="C8" s="611"/>
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="2:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.35">
@@ -17811,10 +17755,10 @@
       <c r="D11" s="22"/>
     </row>
     <row r="12" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="610" t="s">
+      <c r="B12" s="611" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="610"/>
+      <c r="C12" s="611"/>
       <c r="D12" s="302"/>
       <c r="E12" s="27"/>
     </row>
@@ -17852,10 +17796,10 @@
       <c r="E15" s="27"/>
     </row>
     <row r="16" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="610" t="s">
+      <c r="B16" s="611" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="610"/>
+      <c r="C16" s="611"/>
       <c r="D16" s="302"/>
       <c r="E16" s="27"/>
     </row>
@@ -18378,15 +18322,15 @@
       </c>
       <c r="C19" s="326">
         <f>IF('7b-IncomeStatementYrs1-3'!C14=0,0,NetIncomeY1/'7b-IncomeStatementYrs1-3'!C14)</f>
-        <v>-9.2901190579021645E-2</v>
+        <v>-2.2661347211424966E-2</v>
       </c>
       <c r="D19" s="326">
         <f>IF('7b-IncomeStatementYrs1-3'!E14=0,0,NetIncomeY2/'7b-IncomeStatementYrs1-3'!E14)</f>
-        <v>-1.7529695111257723E-2</v>
+        <v>4.6324707950193805E-2</v>
       </c>
       <c r="E19" s="326">
         <f>IF('7b-IncomeStatementYrs1-3'!G14=0,0,NetIncomeY3/'7b-IncomeStatementYrs1-3'!G14)</f>
-        <v>5.2513477147026845E-2</v>
+        <v>0.11056293447561914</v>
       </c>
       <c r="F19" s="327"/>
       <c r="G19" s="9"/>
@@ -18398,15 +18342,15 @@
       </c>
       <c r="C20" s="326">
         <f>IF('8-BalanceSheet'!D42=0,0, NetIncomeY1/'8-BalanceSheet'!D42)</f>
-        <v>-6.8847139985814182E-2</v>
+        <v>-1.8745369226234352E-2</v>
       </c>
       <c r="D20" s="326">
         <f>IF('8-BalanceSheet'!E42=0,0, NetIncomeY2/'8-BalanceSheet'!E42)</f>
-        <v>-1.4497145615786838E-2</v>
+        <v>4.044666951400594E-2</v>
       </c>
       <c r="E20" s="326">
         <f>IF('8-BalanceSheet'!F42=0,0, NetIncomeY3/'8-BalanceSheet'!F42)</f>
-        <v>4.5593705974870682E-2</v>
+        <v>9.5993908612956466E-2</v>
       </c>
       <c r="F20" s="327"/>
       <c r="G20" s="9"/>
@@ -18418,15 +18362,15 @@
       </c>
       <c r="C21" s="326">
         <f>IF('8-BalanceSheet'!D26=0,0, NetIncomeY1/'8-BalanceSheet'!D26)</f>
-        <v>-6.8847149167307345E-2</v>
+        <v>-1.874539099130642E-2</v>
       </c>
       <c r="D21" s="326">
         <f>IF('8-BalanceSheet'!E26=0,0, NetIncomeY2/'8-BalanceSheet'!E26)</f>
-        <v>-1.4497163668306836E-2</v>
+        <v>4.0446683402574908E-2</v>
       </c>
       <c r="E21" s="326">
         <f>IF('8-BalanceSheet'!F26=0,0, NetIncomeY3/'8-BalanceSheet'!F26)</f>
-        <v>4.5593718381069459E-2</v>
+        <v>9.5993934733217712E-2</v>
       </c>
       <c r="F21" s="327"/>
       <c r="G21" s="9"/>
@@ -18549,11 +18493,11 @@
       </c>
       <c r="C28" s="323">
         <f>IF('8-BalanceSheet'!D26=0,0,'7b-IncomeStatementYrs1-3'!C14/'8-BalanceSheet'!D26)</f>
-        <v>0.74107929874963274</v>
+        <v>0.82719667177844247</v>
       </c>
       <c r="D28" s="323">
         <f>IF('8-BalanceSheet'!E26=0,0,'7b-IncomeStatementYrs1-3'!E14/'8-BalanceSheet'!E26)</f>
-        <v>0.82700603611734413</v>
+        <v>0.87311253955580936</v>
       </c>
       <c r="E28" s="323">
         <f>IF('8-BalanceSheet'!F26=0,0,'7b-IncomeStatementYrs1-3'!G14/'8-BalanceSheet'!F26)</f>
@@ -18601,22 +18545,22 @@
   <sheetProtection password="CC3D" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="containsBlanks" dxfId="6" priority="11">
+    <cfRule type="containsBlanks" dxfId="5" priority="11">
       <formula>LEN(TRIM(F9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="containsBlanks" dxfId="5" priority="10">
+    <cfRule type="containsBlanks" dxfId="4" priority="10">
       <formula>LEN(TRIM(F12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F22">
-    <cfRule type="containsBlanks" dxfId="4" priority="12">
+    <cfRule type="containsBlanks" dxfId="3" priority="12">
       <formula>LEN(TRIM(F15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F28">
-    <cfRule type="containsBlanks" dxfId="3" priority="9">
+    <cfRule type="containsBlanks" dxfId="2" priority="9">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18677,10 +18621,10 @@
       <c r="B4" s="286" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="623" t="s">
+      <c r="C4" s="624" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="623"/>
+      <c r="D4" s="624"/>
     </row>
     <row r="5" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
@@ -18688,11 +18632,11 @@
         <f>IF(ISBLANK(Directions!C6), "Owner", Directions!C6)</f>
         <v>Thomas Francis</v>
       </c>
-      <c r="C5" s="624" t="str">
+      <c r="C5" s="625" t="str">
         <f>IF(ISBLANK(Directions!D6), "Company 1", Directions!D6)</f>
         <v>The Soshow</v>
       </c>
-      <c r="D5" s="624"/>
+      <c r="D5" s="625"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -18730,7 +18674,7 @@
       </c>
       <c r="C8" s="454">
         <f>IF('1-StartingPoint'!D42=0,0,'1-StartingPoint'!D34/'1-StartingPoint'!C31)</f>
-        <v>2.5453172525845572E-2</v>
+        <v>2.9808184333811917E-2</v>
       </c>
       <c r="D8" s="455" t="str">
         <f>IF(C8&gt;0.2,"Owner's injection is reasonable","Owner's injection might be too low in relation to the amount of money needed")</f>
@@ -18748,7 +18692,7 @@
       </c>
       <c r="C9" s="30">
         <f>IF('1-StartingPoint'!C31=0,0,'1-StartingPoint'!C29/'1-StartingPoint'!C31)</f>
-        <v>0.45811468351101059</v>
+        <v>0.53649763770139147</v>
       </c>
       <c r="D9" s="17" t="str">
         <f>IF(C9&lt;0.2,"Cash request seems reasonable with respect to total request","Cash request exceeds 20% which might be too high")</f>
@@ -18980,7 +18924,7 @@
       </c>
       <c r="C23" s="330">
         <f>NetIncomeY1</f>
-        <v>-25306.284313725497</v>
+        <v>-6172.950980392161</v>
       </c>
       <c r="D23" s="19" t="str">
         <f>IF(C23&lt;=0,"The business is not showing a profit","The business is showing a profit")</f>
@@ -18998,7 +18942,7 @@
       </c>
       <c r="C24" s="30">
         <f>IF('7b-IncomeStatementYrs1-3'!C14=0,0,NetIncomeY1/'7b-IncomeStatementYrs1-3'!C14)</f>
-        <v>-9.2901190579021645E-2</v>
+        <v>-2.2661347211424966E-2</v>
       </c>
       <c r="D24" s="19" t="str">
         <f>IF(C24&gt;0.2,"The projection may be too aggressive in stating profitability","The projection does not seem highly unreasonable")</f>
@@ -19326,10 +19270,10 @@
       <c r="I6" s="328"/>
     </row>
     <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="610" t="s">
+      <c r="B7" s="611" t="s">
         <v>307</v>
       </c>
-      <c r="C7" s="610"/>
+      <c r="C7" s="611"/>
       <c r="F7" s="328"/>
       <c r="G7" s="328"/>
       <c r="H7" s="328"/>
@@ -19431,10 +19375,10 @@
       <c r="C17" s="96"/>
     </row>
     <row r="18" spans="2:9" s="246" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="610" t="s">
+      <c r="B18" s="611" t="s">
         <v>308</v>
       </c>
-      <c r="C18" s="610"/>
+      <c r="C18" s="611"/>
     </row>
     <row r="19" spans="2:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B19" s="143" t="s">
@@ -19534,27 +19478,27 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="63"/>
-      <c r="C29" s="625" t="s">
+      <c r="C29" s="626" t="s">
         <v>244</v>
       </c>
-      <c r="D29" s="625"/>
-      <c r="E29" s="625"/>
+      <c r="D29" s="626"/>
+      <c r="E29" s="626"/>
       <c r="G29" s="251"/>
       <c r="H29" s="251"/>
       <c r="I29" s="251"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C30" s="625"/>
-      <c r="D30" s="625"/>
-      <c r="E30" s="625"/>
+      <c r="C30" s="626"/>
+      <c r="D30" s="626"/>
+      <c r="E30" s="626"/>
       <c r="G30" s="251"/>
       <c r="H30" s="251"/>
       <c r="I30" s="251"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="625"/>
-      <c r="D31" s="625"/>
-      <c r="E31" s="625"/>
+      <c r="C31" s="626"/>
+      <c r="D31" s="626"/>
+      <c r="E31" s="626"/>
       <c r="G31" s="251"/>
       <c r="H31" s="251"/>
       <c r="I31" s="251"/>
@@ -19643,12 +19587,12 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsBlanks" dxfId="2" priority="7" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C23 C15 C10:C13">
-    <cfRule type="containsBlanks" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19690,12 +19634,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B2" s="626" t="s">
+      <c r="B2" s="627" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="626"/>
-      <c r="D2" s="626"/>
-      <c r="E2" s="626"/>
+      <c r="C2" s="627"/>
+      <c r="D2" s="627"/>
+      <c r="E2" s="627"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="296"/>
@@ -19708,11 +19652,11 @@
       <c r="C4" s="297" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="627" t="s">
+      <c r="E4" s="628" t="s">
         <v>245</v>
       </c>
-      <c r="F4" s="627"/>
-      <c r="G4" s="627"/>
+      <c r="F4" s="628"/>
+      <c r="G4" s="628"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="203" t="str">
@@ -19723,20 +19667,20 @@
         <f>IF(ISBLANK(Directions!D6), "Company 1", Directions!D6)</f>
         <v>The Soshow</v>
       </c>
-      <c r="E5" s="627"/>
-      <c r="F5" s="627"/>
-      <c r="G5" s="627"/>
+      <c r="E5" s="628"/>
+      <c r="F5" s="628"/>
+      <c r="G5" s="628"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="E6" s="627"/>
-      <c r="F6" s="627"/>
-      <c r="G6" s="627"/>
+      <c r="E6" s="628"/>
+      <c r="F6" s="628"/>
+      <c r="G6" s="628"/>
     </row>
     <row r="8" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="610" t="s">
+      <c r="B8" s="611" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="610"/>
+      <c r="C8" s="611"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -20514,10 +20458,10 @@
       <c r="Q27" s="22"/>
     </row>
     <row r="28" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="610" t="s">
+      <c r="B28" s="611" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="610"/>
+      <c r="C28" s="611"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -21300,10 +21244,10 @@
       <c r="Q47" s="22"/>
     </row>
     <row r="48" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="610" t="s">
+      <c r="B48" s="611" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="610"/>
+      <c r="C48" s="611"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -22086,10 +22030,10 @@
       <c r="Q67" s="22"/>
     </row>
     <row r="68" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="610" t="s">
+      <c r="B68" s="611" t="s">
         <v>147</v>
       </c>
-      <c r="C68" s="610"/>
+      <c r="C68" s="611"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
@@ -22872,10 +22816,10 @@
       <c r="Q87" s="22"/>
     </row>
     <row r="88" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="610" t="s">
+      <c r="B88" s="611" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="610"/>
+      <c r="C88" s="611"/>
       <c r="D88" s="22"/>
       <c r="E88" s="22"/>
       <c r="F88" s="22"/>
@@ -23658,10 +23602,10 @@
       <c r="Q107" s="22"/>
     </row>
     <row r="108" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B108" s="610" t="s">
+      <c r="B108" s="611" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="610"/>
+      <c r="C108" s="611"/>
       <c r="D108" s="22"/>
       <c r="E108" s="22"/>
       <c r="F108" s="22"/>
@@ -24540,7 +24484,7 @@
       </c>
       <c r="C132" s="391">
         <f>TotalOperatingCapital-Working_Capital-Inventory-OtherStartUp</f>
-        <v>128900.00000000003</v>
+        <v>71500</v>
       </c>
       <c r="D132" s="390"/>
       <c r="E132" s="22"/>
@@ -24563,11 +24507,11 @@
       </c>
       <c r="C133" s="82">
         <f>IF('4-AdditionalInputs'!C44=0,0,'Amortization&amp;Depreciation'!C132/'4-AdditionalInputs'!C44)</f>
-        <v>42966.666666666679</v>
+        <v>23833.333333333332</v>
       </c>
       <c r="D133" s="299">
         <f>+C133/12</f>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="E133" s="22"/>
       <c r="F133" s="22"/>
@@ -24716,55 +24660,55 @@
       </c>
       <c r="C138" s="57">
         <f>+D133</f>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="D138" s="57">
         <f>IF(C139&lt;$C$132,$D$133,0)</f>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="E138" s="57">
         <f t="shared" ref="E138:N138" si="22">IF(D139&lt;$C$132,$D$133,0)</f>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="F138" s="57">
         <f t="shared" si="22"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="G138" s="57">
         <f t="shared" si="22"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="H138" s="57">
         <f t="shared" si="22"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="I138" s="57">
         <f t="shared" si="22"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="J138" s="57">
         <f t="shared" si="22"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="K138" s="57">
         <f t="shared" si="22"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="L138" s="57">
         <f t="shared" si="22"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="M138" s="57">
         <f t="shared" si="22"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="N138" s="57">
         <f t="shared" si="22"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="O138" s="382">
         <f>SUM(C138:N138)</f>
-        <v>42966.666666666664</v>
+        <v>23833.333333333328</v>
       </c>
       <c r="P138" s="22"/>
       <c r="Q138" s="22"/>
@@ -24775,51 +24719,51 @@
       </c>
       <c r="C139" s="58">
         <f>+C138</f>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="D139" s="58">
         <f>+D138+C139</f>
-        <v>7161.1111111111131</v>
+        <v>3972.2222222222222</v>
       </c>
       <c r="E139" s="58">
         <f t="shared" ref="E139:N139" si="23">+E138+D139</f>
-        <v>10741.66666666667</v>
+        <v>5958.333333333333</v>
       </c>
       <c r="F139" s="58">
         <f t="shared" si="23"/>
-        <v>14322.222222222226</v>
+        <v>7944.4444444444443</v>
       </c>
       <c r="G139" s="58">
         <f t="shared" si="23"/>
-        <v>17902.777777777781</v>
+        <v>9930.5555555555547</v>
       </c>
       <c r="H139" s="58">
         <f t="shared" si="23"/>
-        <v>21483.333333333336</v>
+        <v>11916.666666666666</v>
       </c>
       <c r="I139" s="58">
         <f t="shared" si="23"/>
-        <v>25063.888888888891</v>
+        <v>13902.777777777777</v>
       </c>
       <c r="J139" s="58">
         <f t="shared" si="23"/>
-        <v>28644.444444444445</v>
+        <v>15888.888888888889</v>
       </c>
       <c r="K139" s="58">
         <f t="shared" si="23"/>
-        <v>32225</v>
+        <v>17875</v>
       </c>
       <c r="L139" s="58">
         <f t="shared" si="23"/>
-        <v>35805.555555555555</v>
+        <v>19861.111111111109</v>
       </c>
       <c r="M139" s="58">
         <f t="shared" si="23"/>
-        <v>39386.111111111109</v>
+        <v>21847.222222222219</v>
       </c>
       <c r="N139" s="58">
         <f t="shared" si="23"/>
-        <v>42966.666666666664</v>
+        <v>23833.333333333328</v>
       </c>
       <c r="O139" s="57"/>
       <c r="P139" s="22"/>
@@ -24851,55 +24795,55 @@
       </c>
       <c r="C141" s="57">
         <f>IF(N139&lt;$C$132,$D$133,0)</f>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="D141" s="57">
         <f t="shared" ref="D141:N141" si="24">IF(C142&lt;$C$132,$D$133,0)</f>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="E141" s="57">
         <f t="shared" si="24"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="F141" s="57">
         <f t="shared" si="24"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="G141" s="57">
         <f t="shared" si="24"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="H141" s="57">
         <f t="shared" si="24"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="I141" s="57">
         <f t="shared" si="24"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="J141" s="57">
         <f t="shared" si="24"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="K141" s="57">
         <f t="shared" si="24"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="L141" s="57">
         <f t="shared" si="24"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="M141" s="57">
         <f t="shared" si="24"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="N141" s="57">
         <f t="shared" si="24"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="O141" s="382">
         <f t="shared" ref="O141" si="25">SUM(C141:N141)</f>
-        <v>42966.666666666664</v>
+        <v>23833.333333333328</v>
       </c>
       <c r="P141" s="22"/>
       <c r="Q141" s="22"/>
@@ -24910,51 +24854,51 @@
       </c>
       <c r="C142" s="58">
         <f>+C141+N139</f>
-        <v>46547.222222222219</v>
+        <v>25819.444444444438</v>
       </c>
       <c r="D142" s="58">
         <f t="shared" ref="D142:N142" si="26">+D141+C142</f>
-        <v>50127.777777777774</v>
+        <v>27805.555555555547</v>
       </c>
       <c r="E142" s="58">
         <f t="shared" si="26"/>
-        <v>53708.333333333328</v>
+        <v>29791.666666666657</v>
       </c>
       <c r="F142" s="58">
         <f t="shared" si="26"/>
-        <v>57288.888888888883</v>
+        <v>31777.777777777766</v>
       </c>
       <c r="G142" s="58">
         <f t="shared" si="26"/>
-        <v>60869.444444444438</v>
+        <v>33763.888888888876</v>
       </c>
       <c r="H142" s="58">
         <f t="shared" si="26"/>
-        <v>64449.999999999993</v>
+        <v>35749.999999999985</v>
       </c>
       <c r="I142" s="58">
         <f t="shared" si="26"/>
-        <v>68030.555555555547</v>
+        <v>37736.111111111095</v>
       </c>
       <c r="J142" s="58">
         <f t="shared" si="26"/>
-        <v>71611.111111111109</v>
+        <v>39722.222222222204</v>
       </c>
       <c r="K142" s="58">
         <f t="shared" si="26"/>
-        <v>75191.666666666672</v>
+        <v>41708.333333333314</v>
       </c>
       <c r="L142" s="58">
         <f t="shared" si="26"/>
-        <v>78772.222222222234</v>
+        <v>43694.444444444423</v>
       </c>
       <c r="M142" s="58">
         <f t="shared" si="26"/>
-        <v>82352.777777777796</v>
+        <v>45680.555555555533</v>
       </c>
       <c r="N142" s="58">
         <f t="shared" si="26"/>
-        <v>85933.333333333358</v>
+        <v>47666.666666666642</v>
       </c>
       <c r="O142" s="57"/>
       <c r="P142" s="22"/>
@@ -24986,55 +24930,55 @@
       </c>
       <c r="C144" s="57">
         <f>IF(N142&lt;$C$132,$D$133,0)</f>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="D144" s="57">
         <f t="shared" ref="D144:N144" si="27">IF(C145&lt;$C$132,$D$133,0)</f>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="E144" s="57">
         <f t="shared" si="27"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="F144" s="57">
         <f t="shared" si="27"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="G144" s="57">
         <f t="shared" si="27"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="H144" s="57">
         <f t="shared" si="27"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="I144" s="57">
         <f t="shared" si="27"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="J144" s="57">
         <f t="shared" si="27"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="K144" s="57">
         <f t="shared" si="27"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="L144" s="57">
         <f t="shared" si="27"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="M144" s="57">
         <f t="shared" si="27"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="N144" s="57">
         <f t="shared" si="27"/>
-        <v>3580.5555555555566</v>
+        <v>1986.1111111111111</v>
       </c>
       <c r="O144" s="382">
         <f t="shared" ref="O144" si="28">SUM(C144:N144)</f>
-        <v>42966.666666666664</v>
+        <v>23833.333333333328</v>
       </c>
       <c r="P144" s="22"/>
       <c r="Q144" s="22"/>
@@ -25045,51 +24989,51 @@
       </c>
       <c r="C145" s="58">
         <f>+C144+N142</f>
-        <v>89513.88888888892</v>
+        <v>49652.777777777752</v>
       </c>
       <c r="D145" s="58">
         <f t="shared" ref="D145" si="29">+D144+C145</f>
-        <v>93094.444444444482</v>
+        <v>51638.888888888861</v>
       </c>
       <c r="E145" s="58">
         <f t="shared" ref="E145" si="30">+E144+D145</f>
-        <v>96675.000000000044</v>
+        <v>53624.999999999971</v>
       </c>
       <c r="F145" s="58">
         <f t="shared" ref="F145" si="31">+F144+E145</f>
-        <v>100255.55555555561</v>
+        <v>55611.11111111108</v>
       </c>
       <c r="G145" s="58">
         <f t="shared" ref="G145" si="32">+G144+F145</f>
-        <v>103836.11111111117</v>
+        <v>57597.22222222219</v>
       </c>
       <c r="H145" s="58">
         <f t="shared" ref="H145" si="33">+H144+G145</f>
-        <v>107416.66666666673</v>
+        <v>59583.333333333299</v>
       </c>
       <c r="I145" s="58">
         <f t="shared" ref="I145" si="34">+I144+H145</f>
-        <v>110997.22222222229</v>
+        <v>61569.444444444409</v>
       </c>
       <c r="J145" s="58">
         <f t="shared" ref="J145" si="35">+J144+I145</f>
-        <v>114577.77777777785</v>
+        <v>63555.555555555518</v>
       </c>
       <c r="K145" s="58">
         <f t="shared" ref="K145" si="36">+K144+J145</f>
-        <v>118158.33333333342</v>
+        <v>65541.666666666628</v>
       </c>
       <c r="L145" s="58">
         <f t="shared" ref="L145" si="37">+L144+K145</f>
-        <v>121738.88888888898</v>
+        <v>67527.777777777737</v>
       </c>
       <c r="M145" s="58">
         <f t="shared" ref="M145" si="38">+M144+L145</f>
-        <v>125319.44444444454</v>
+        <v>69513.888888888847</v>
       </c>
       <c r="N145" s="58">
         <f t="shared" ref="N145" si="39">+N144+M145</f>
-        <v>128900.0000000001</v>
+        <v>71499.999999999956</v>
       </c>
       <c r="O145" s="57"/>
       <c r="P145" s="22"/>
@@ -25667,8 +25611,8 @@
   </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:F23"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.45"/>
@@ -25697,11 +25641,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="466"/>
-      <c r="B2" s="601" t="s">
+      <c r="B2" s="582" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="601"/>
-      <c r="D2" s="601"/>
+      <c r="C2" s="582"/>
+      <c r="D2" s="582"/>
       <c r="E2" s="466"/>
       <c r="F2" s="466"/>
       <c r="G2" s="466"/>
@@ -25771,10 +25715,10 @@
       <c r="D7" s="474" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="577" t="s">
+      <c r="E7" s="590" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="577"/>
+      <c r="F7" s="590"/>
       <c r="G7" s="475"/>
       <c r="H7" s="466"/>
       <c r="I7" s="466"/>
@@ -25785,8 +25729,8 @@
       <c r="B8" s="476"/>
       <c r="C8" s="477"/>
       <c r="D8" s="477"/>
-      <c r="E8" s="578"/>
-      <c r="F8" s="579"/>
+      <c r="E8" s="591"/>
+      <c r="F8" s="592"/>
       <c r="G8" s="478"/>
       <c r="H8" s="466"/>
       <c r="I8" s="466"/>
@@ -25803,10 +25747,10 @@
       <c r="D9" s="558" t="s">
         <v>354</v>
       </c>
-      <c r="E9" s="580" t="s">
+      <c r="E9" s="593" t="s">
         <v>379</v>
       </c>
-      <c r="F9" s="581"/>
+      <c r="F9" s="594"/>
       <c r="G9" s="478"/>
       <c r="H9" s="466"/>
       <c r="I9" s="466"/>
@@ -25823,10 +25767,10 @@
       <c r="D10" s="482">
         <v>20</v>
       </c>
-      <c r="E10" s="582" t="s">
+      <c r="E10" s="574" t="s">
         <v>379</v>
       </c>
-      <c r="F10" s="583"/>
+      <c r="F10" s="575"/>
       <c r="G10" s="483"/>
       <c r="H10" s="466"/>
       <c r="I10" s="466"/>
@@ -25844,8 +25788,8 @@
       <c r="D11" s="482">
         <v>7</v>
       </c>
-      <c r="E11" s="582"/>
-      <c r="F11" s="583"/>
+      <c r="E11" s="574"/>
+      <c r="F11" s="575"/>
       <c r="G11" s="483"/>
       <c r="H11" s="466"/>
       <c r="I11" s="466"/>
@@ -25863,8 +25807,8 @@
       <c r="D12" s="482">
         <v>7</v>
       </c>
-      <c r="E12" s="582"/>
-      <c r="F12" s="583"/>
+      <c r="E12" s="574"/>
+      <c r="F12" s="575"/>
       <c r="G12" s="483"/>
       <c r="H12" s="466"/>
       <c r="I12" s="466"/>
@@ -25882,8 +25826,8 @@
       <c r="D13" s="482">
         <v>5</v>
       </c>
-      <c r="E13" s="582"/>
-      <c r="F13" s="583"/>
+      <c r="E13" s="574"/>
+      <c r="F13" s="575"/>
       <c r="G13" s="483"/>
       <c r="H13" s="466"/>
       <c r="I13" s="466"/>
@@ -25900,8 +25844,8 @@
       <c r="D14" s="482">
         <v>5</v>
       </c>
-      <c r="E14" s="582"/>
-      <c r="F14" s="583"/>
+      <c r="E14" s="574"/>
+      <c r="F14" s="575"/>
       <c r="G14" s="483"/>
       <c r="H14" s="466"/>
       <c r="I14" s="466"/>
@@ -25918,10 +25862,10 @@
       <c r="D15" s="482">
         <v>5</v>
       </c>
-      <c r="E15" s="582" t="s">
+      <c r="E15" s="574" t="s">
         <v>378</v>
       </c>
-      <c r="F15" s="583"/>
+      <c r="F15" s="575"/>
       <c r="G15" s="483"/>
       <c r="H15" s="466"/>
       <c r="I15" s="466"/>
@@ -25937,8 +25881,8 @@
         <v>83495</v>
       </c>
       <c r="D16" s="486"/>
-      <c r="E16" s="587"/>
-      <c r="F16" s="588"/>
+      <c r="E16" s="598"/>
+      <c r="F16" s="599"/>
       <c r="G16" s="487"/>
       <c r="H16" s="466"/>
       <c r="I16" s="466"/>
@@ -25946,11 +25890,11 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="466"/>
-      <c r="B17" s="592"/>
-      <c r="C17" s="593"/>
-      <c r="D17" s="593"/>
-      <c r="E17" s="593"/>
-      <c r="F17" s="594"/>
+      <c r="B17" s="603"/>
+      <c r="C17" s="604"/>
+      <c r="D17" s="604"/>
+      <c r="E17" s="604"/>
+      <c r="F17" s="605"/>
       <c r="G17" s="488"/>
       <c r="H17" s="466"/>
       <c r="I17" s="466"/>
@@ -25963,11 +25907,11 @@
       <c r="C18" s="490" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="584" t="s">
+      <c r="D18" s="595" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="585"/>
-      <c r="F18" s="586"/>
+      <c r="E18" s="596"/>
+      <c r="F18" s="597"/>
       <c r="G18" s="466"/>
       <c r="H18" s="466"/>
       <c r="I18" s="466"/>
@@ -25978,14 +25922,13 @@
         <v>40</v>
       </c>
       <c r="C19" s="492">
-        <f>[1]employees!$B$18</f>
-        <v>57400</v>
-      </c>
-      <c r="D19" s="595" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="576" t="s">
         <v>386</v>
       </c>
-      <c r="E19" s="596"/>
-      <c r="F19" s="597"/>
+      <c r="E19" s="577"/>
+      <c r="F19" s="578"/>
       <c r="G19" s="466"/>
       <c r="H19" s="466"/>
       <c r="I19" s="466"/>
@@ -25998,11 +25941,11 @@
       <c r="C20" s="481">
         <v>5000</v>
       </c>
-      <c r="D20" s="574" t="s">
+      <c r="D20" s="586" t="s">
         <v>381</v>
       </c>
-      <c r="E20" s="575"/>
-      <c r="F20" s="576"/>
+      <c r="E20" s="587"/>
+      <c r="F20" s="588"/>
       <c r="G20" s="466"/>
       <c r="H20" s="466"/>
       <c r="I20" s="466"/>
@@ -26015,11 +25958,11 @@
       <c r="C21" s="481">
         <v>0</v>
       </c>
-      <c r="D21" s="574" t="s">
+      <c r="D21" s="586" t="s">
         <v>382</v>
       </c>
-      <c r="E21" s="575"/>
-      <c r="F21" s="576"/>
+      <c r="E21" s="587"/>
+      <c r="F21" s="588"/>
       <c r="G21" s="466"/>
       <c r="H21" s="466"/>
       <c r="I21" s="466"/>
@@ -26032,11 +25975,11 @@
       <c r="C22" s="481">
         <v>500</v>
       </c>
-      <c r="D22" s="574" t="s">
+      <c r="D22" s="586" t="s">
         <v>380</v>
       </c>
-      <c r="E22" s="575"/>
-      <c r="F22" s="576"/>
+      <c r="E22" s="587"/>
+      <c r="F22" s="588"/>
       <c r="G22" s="466"/>
       <c r="H22" s="466"/>
       <c r="I22" s="466"/>
@@ -26049,11 +25992,11 @@
       <c r="C23" s="481">
         <v>60000</v>
       </c>
-      <c r="D23" s="574" t="s">
+      <c r="D23" s="586" t="s">
         <v>389</v>
       </c>
-      <c r="E23" s="575"/>
-      <c r="F23" s="576"/>
+      <c r="E23" s="587"/>
+      <c r="F23" s="588"/>
       <c r="G23" s="466"/>
       <c r="H23" s="466"/>
       <c r="I23" s="466"/>
@@ -26066,11 +26009,11 @@
       <c r="C24" s="481">
         <v>0</v>
       </c>
-      <c r="D24" s="574" t="s">
+      <c r="D24" s="586" t="s">
         <v>383</v>
       </c>
-      <c r="E24" s="575"/>
-      <c r="F24" s="576"/>
+      <c r="E24" s="587"/>
+      <c r="F24" s="588"/>
       <c r="G24" s="466"/>
       <c r="H24" s="466"/>
       <c r="I24" s="466"/>
@@ -26083,11 +26026,11 @@
       <c r="C25" s="481">
         <v>1000</v>
       </c>
-      <c r="D25" s="574" t="s">
+      <c r="D25" s="586" t="s">
         <v>387</v>
       </c>
-      <c r="E25" s="575"/>
-      <c r="F25" s="576"/>
+      <c r="E25" s="587"/>
+      <c r="F25" s="588"/>
       <c r="G25" s="493"/>
       <c r="H25" s="466"/>
       <c r="I25" s="466"/>
@@ -26100,11 +26043,11 @@
       <c r="C26" s="481">
         <v>5000</v>
       </c>
-      <c r="D26" s="574" t="s">
+      <c r="D26" s="586" t="s">
         <v>388</v>
       </c>
-      <c r="E26" s="575"/>
-      <c r="F26" s="576"/>
+      <c r="E26" s="587"/>
+      <c r="F26" s="588"/>
       <c r="G26" s="466"/>
       <c r="H26" s="466"/>
       <c r="I26" s="466"/>
@@ -26117,11 +26060,11 @@
       <c r="C27" s="481">
         <v>0</v>
       </c>
-      <c r="D27" s="574" t="s">
+      <c r="D27" s="586" t="s">
         <v>384</v>
       </c>
-      <c r="E27" s="575"/>
-      <c r="F27" s="576"/>
+      <c r="E27" s="587"/>
+      <c r="F27" s="588"/>
       <c r="G27" s="466"/>
       <c r="H27" s="466"/>
       <c r="I27" s="466"/>
@@ -26134,11 +26077,11 @@
       <c r="C28" s="481">
         <v>500</v>
       </c>
-      <c r="D28" s="574" t="s">
+      <c r="D28" s="586" t="s">
         <v>385</v>
       </c>
-      <c r="E28" s="575"/>
-      <c r="F28" s="576"/>
+      <c r="E28" s="587"/>
+      <c r="F28" s="588"/>
       <c r="G28" s="466"/>
       <c r="H28" s="466"/>
       <c r="I28" s="466"/>
@@ -26152,11 +26095,11 @@
         <f>[1]Overhead!$B$18</f>
         <v>179983.33333333334</v>
       </c>
-      <c r="D29" s="574" t="s">
+      <c r="D29" s="586" t="s">
         <v>390</v>
       </c>
-      <c r="E29" s="575"/>
-      <c r="F29" s="576"/>
+      <c r="E29" s="587"/>
+      <c r="F29" s="588"/>
       <c r="G29" s="466"/>
       <c r="H29" s="466"/>
       <c r="I29" s="466"/>
@@ -26168,11 +26111,11 @@
       </c>
       <c r="C30" s="495">
         <f>SUM(C19:C29)</f>
-        <v>309383.33333333337</v>
-      </c>
-      <c r="D30" s="574"/>
-      <c r="E30" s="575"/>
-      <c r="F30" s="576"/>
+        <v>251983.33333333334</v>
+      </c>
+      <c r="D30" s="586"/>
+      <c r="E30" s="587"/>
+      <c r="F30" s="588"/>
       <c r="G30" s="466"/>
       <c r="H30" s="466"/>
       <c r="I30" s="466"/>
@@ -26184,11 +26127,11 @@
       </c>
       <c r="C31" s="496">
         <f>C16+C30</f>
-        <v>392878.33333333337</v>
-      </c>
-      <c r="D31" s="602"/>
-      <c r="E31" s="603"/>
-      <c r="F31" s="604"/>
+        <v>335478.33333333337</v>
+      </c>
+      <c r="D31" s="583"/>
+      <c r="E31" s="584"/>
+      <c r="F31" s="585"/>
       <c r="G31" s="466"/>
       <c r="H31" s="466"/>
       <c r="I31" s="466"/>
@@ -26235,7 +26178,7 @@
       </c>
       <c r="C34" s="533">
         <f>IF($C$31=0,0,D34/$C$31)</f>
-        <v>2.5453172525845572E-2</v>
+        <v>2.9808184333811917E-2</v>
       </c>
       <c r="D34" s="492">
         <f>10000</f>
@@ -26253,11 +26196,11 @@
       </c>
       <c r="C35" s="534">
         <f>IF($C$31=0,0,D35/$C$31)</f>
-        <v>0.97454682747415444</v>
+        <v>0.97019181566618806</v>
       </c>
       <c r="D35" s="481">
         <f>TotalRequiredFunds-10000</f>
-        <v>382878.33333333337</v>
+        <v>325478.33333333337</v>
       </c>
       <c r="E35" s="506"/>
       <c r="F35" s="506"/>
@@ -26319,11 +26262,11 @@
         <v>0</v>
       </c>
       <c r="H38" s="507"/>
-      <c r="J38" s="600" t="s">
+      <c r="J38" s="581" t="s">
         <v>250</v>
       </c>
-      <c r="K38" s="600"/>
-      <c r="L38" s="600"/>
+      <c r="K38" s="581"/>
+      <c r="L38" s="581"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="466"/>
@@ -26346,9 +26289,9 @@
         <v>0</v>
       </c>
       <c r="H39" s="507"/>
-      <c r="J39" s="600"/>
-      <c r="K39" s="600"/>
-      <c r="L39" s="600"/>
+      <c r="J39" s="581"/>
+      <c r="K39" s="581"/>
+      <c r="L39" s="581"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="466"/>
@@ -26371,9 +26314,9 @@
         <v>0</v>
       </c>
       <c r="H40" s="507"/>
-      <c r="J40" s="600"/>
-      <c r="K40" s="600"/>
-      <c r="L40" s="600"/>
+      <c r="J40" s="581"/>
+      <c r="K40" s="581"/>
+      <c r="L40" s="581"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="466"/>
@@ -26396,9 +26339,9 @@
         <v>0</v>
       </c>
       <c r="H41" s="512"/>
-      <c r="J41" s="600"/>
-      <c r="K41" s="600"/>
-      <c r="L41" s="600"/>
+      <c r="J41" s="581"/>
+      <c r="K41" s="581"/>
+      <c r="L41" s="581"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="466"/>
@@ -26411,12 +26354,12 @@
       </c>
       <c r="D42" s="513">
         <f>SUM(D34:D41)</f>
-        <v>392878.33333333337</v>
-      </c>
-      <c r="E42" s="598" t="s">
+        <v>335478.33333333337</v>
+      </c>
+      <c r="E42" s="579" t="s">
         <v>261</v>
       </c>
-      <c r="F42" s="599"/>
+      <c r="F42" s="580"/>
       <c r="G42" s="514">
         <f>SUM(G37:G41)</f>
         <v>0</v>
@@ -26433,12 +26376,12 @@
         <f>C31-D42</f>
         <v>0</v>
       </c>
-      <c r="E43" s="589" t="str">
+      <c r="E43" s="600" t="str">
         <f>IF(D43&gt;0,"You require more funding (Not Balanced)",IF(D43&lt;0,"Your funding exceeds your needs (Not Balanced)","You are fully funded (Balanced)"))</f>
         <v>You are fully funded (Balanced)</v>
       </c>
-      <c r="F43" s="590"/>
-      <c r="G43" s="591"/>
+      <c r="F43" s="601"/>
+      <c r="G43" s="602"/>
       <c r="H43" s="516"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
@@ -26464,10 +26407,10 @@
       <c r="H45" s="466"/>
     </row>
     <row r="46" spans="1:12" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="573" t="s">
+      <c r="B46" s="589" t="s">
         <v>232</v>
       </c>
-      <c r="C46" s="573"/>
+      <c r="C46" s="589"/>
       <c r="D46" s="519"/>
       <c r="E46" s="519"/>
       <c r="F46" s="519"/>
@@ -26545,20 +26488,6 @@
   </sheetData>
   <sheetProtection password="CC3D" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <mergeCells count="30">
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="J38:L41"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D29:F29"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D28:F28"/>
@@ -26575,6 +26504,20 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="D30:F30"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="J38:L41"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C9:C15 C19:C29 D34:D35 D37:D41">
@@ -28267,10 +28210,10 @@
       <c r="B4" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="605" t="s">
+      <c r="C4" s="606" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="605"/>
+      <c r="D4" s="606"/>
       <c r="E4" s="101"/>
       <c r="F4" s="101"/>
       <c r="G4" s="101"/>
@@ -28299,11 +28242,11 @@
         <f>IF(ISBLANK(Directions!C6), "Owner", Directions!C6)</f>
         <v>Thomas Francis</v>
       </c>
-      <c r="C5" s="606" t="str">
+      <c r="C5" s="607" t="str">
         <f>IF(ISBLANK(Directions!D6), "Company 1", Directions!D6)</f>
         <v>The Soshow</v>
       </c>
-      <c r="D5" s="606"/>
+      <c r="D5" s="607"/>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
       <c r="G5" s="81"/>
@@ -29524,10 +29467,10 @@
       <c r="P1" s="63"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="608" t="s">
+      <c r="B2" s="609" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="608"/>
+      <c r="C2" s="609"/>
       <c r="D2" s="77"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -29585,11 +29528,11 @@
         <f>IF(ISBLANK(Directions!C6), "Owner", Directions!C6)</f>
         <v>Thomas Francis</v>
       </c>
-      <c r="C5" s="606" t="str">
+      <c r="C5" s="607" t="str">
         <f>IF(ISBLANK(Directions!D6), "Company 1", Directions!D6)</f>
         <v>The Soshow</v>
       </c>
-      <c r="D5" s="606"/>
+      <c r="D5" s="607"/>
       <c r="E5" s="63"/>
       <c r="F5" s="63"/>
       <c r="G5" s="63"/>
@@ -29621,12 +29564,12 @@
       <c r="P6" s="63"/>
     </row>
     <row r="7" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="609" t="s">
+      <c r="B7" s="610" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="609"/>
-      <c r="E7" s="609"/>
+      <c r="C7" s="610"/>
+      <c r="D7" s="610"/>
+      <c r="E7" s="610"/>
       <c r="F7" s="9"/>
       <c r="G7" s="65"/>
       <c r="H7" s="65"/>
@@ -29671,7 +29614,7 @@
       <c r="B9" s="159" t="s">
         <v>391</v>
       </c>
-      <c r="C9" s="628">
+      <c r="C9" s="572">
         <f>SUM(C18:N18)</f>
         <v>780</v>
       </c>
@@ -29701,7 +29644,7 @@
       <c r="B10" s="159" t="s">
         <v>393</v>
       </c>
-      <c r="C10" s="628">
+      <c r="C10" s="572">
         <f>SUM(C24:N24)</f>
         <v>4650</v>
       </c>
@@ -29731,7 +29674,7 @@
       <c r="B11" s="159" t="s">
         <v>392</v>
       </c>
-      <c r="C11" s="628">
+      <c r="C11" s="572">
         <f>SUM(C30:N30)</f>
         <v>7800</v>
       </c>
@@ -29822,18 +29765,18 @@
     </row>
     <row r="15" spans="2:19" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="126"/>
-      <c r="C15" s="607"/>
-      <c r="D15" s="607"/>
-      <c r="E15" s="607"/>
-      <c r="F15" s="607"/>
-      <c r="G15" s="607"/>
-      <c r="H15" s="607"/>
-      <c r="I15" s="607"/>
-      <c r="J15" s="607"/>
-      <c r="K15" s="607"/>
-      <c r="L15" s="607"/>
-      <c r="M15" s="607"/>
-      <c r="N15" s="607"/>
+      <c r="C15" s="608"/>
+      <c r="D15" s="608"/>
+      <c r="E15" s="608"/>
+      <c r="F15" s="608"/>
+      <c r="G15" s="608"/>
+      <c r="H15" s="608"/>
+      <c r="I15" s="608"/>
+      <c r="J15" s="608"/>
+      <c r="K15" s="608"/>
+      <c r="L15" s="608"/>
+      <c r="M15" s="608"/>
+      <c r="N15" s="608"/>
     </row>
     <row r="16" spans="2:19" ht="28.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="414" t="s">
@@ -31854,8 +31797,8 @@
   </sheetPr>
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.35"/>
@@ -31927,11 +31870,11 @@
         <f>IF(ISBLANK(Directions!C6), "Owner", Directions!C6)</f>
         <v>Thomas Francis</v>
       </c>
-      <c r="C5" s="606" t="str">
+      <c r="C5" s="607" t="str">
         <f>IF(ISBLANK(Directions!D6), "Company 1", Directions!D6)</f>
         <v>The Soshow</v>
       </c>
-      <c r="D5" s="606"/>
+      <c r="D5" s="607"/>
       <c r="E5" s="63"/>
       <c r="G5" s="162"/>
     </row>
@@ -36243,12 +36186,12 @@
       <c r="E6" s="63"/>
     </row>
     <row r="7" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="610" t="s">
+      <c r="B7" s="611" t="s">
         <v>333</v>
       </c>
-      <c r="C7" s="610"/>
-      <c r="D7" s="610"/>
-      <c r="E7" s="610"/>
+      <c r="C7" s="611"/>
+      <c r="D7" s="611"/>
+      <c r="E7" s="611"/>
     </row>
     <row r="8" spans="2:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B8" s="400" t="s">
@@ -36341,12 +36284,12 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="610" t="s">
+      <c r="B15" s="611" t="s">
         <v>278</v>
       </c>
-      <c r="C15" s="610"/>
-      <c r="D15" s="610"/>
-      <c r="E15" s="610"/>
+      <c r="C15" s="611"/>
+      <c r="D15" s="611"/>
+      <c r="E15" s="611"/>
     </row>
     <row r="16" spans="2:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B16" s="400" t="s">
@@ -36424,51 +36367,51 @@
     <row r="21" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="2:18" s="63" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="610" t="s">
+      <c r="B23" s="611" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="610"/>
-      <c r="D23" s="610"/>
+      <c r="C23" s="611"/>
+      <c r="D23" s="611"/>
     </row>
     <row r="24" spans="2:18" s="63" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="611" t="s">
+      <c r="B24" s="612" t="s">
         <v>199</v>
       </c>
-      <c r="C24" s="612"/>
+      <c r="C24" s="613"/>
       <c r="D24" s="402">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="613" t="s">
+      <c r="B25" s="614" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="614"/>
+      <c r="C25" s="615"/>
       <c r="D25" s="211">
         <v>0.08</v>
       </c>
     </row>
     <row r="26" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:18" s="63" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="610" t="s">
+      <c r="B27" s="611" t="s">
         <v>258</v>
       </c>
-      <c r="C27" s="610"/>
-      <c r="D27" s="610"/>
-      <c r="E27" s="610"/>
-      <c r="F27" s="610"/>
-      <c r="G27" s="610"/>
-      <c r="H27" s="610"/>
-      <c r="I27" s="610"/>
-      <c r="J27" s="610"/>
-      <c r="K27" s="610"/>
-      <c r="L27" s="610"/>
-      <c r="M27" s="610"/>
-      <c r="N27" s="610"/>
-      <c r="O27" s="610"/>
-      <c r="P27" s="610"/>
-      <c r="Q27" s="610"/>
-      <c r="R27" s="610"/>
+      <c r="C27" s="611"/>
+      <c r="D27" s="611"/>
+      <c r="E27" s="611"/>
+      <c r="F27" s="611"/>
+      <c r="G27" s="611"/>
+      <c r="H27" s="611"/>
+      <c r="I27" s="611"/>
+      <c r="J27" s="611"/>
+      <c r="K27" s="611"/>
+      <c r="L27" s="611"/>
+      <c r="M27" s="611"/>
+      <c r="N27" s="611"/>
+      <c r="O27" s="611"/>
+      <c r="P27" s="611"/>
+      <c r="Q27" s="611"/>
+      <c r="R27" s="611"/>
     </row>
     <row r="28" spans="2:18" s="63" customFormat="1" ht="28.2" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B28" s="403" t="s">
@@ -36782,10 +36725,10 @@
     <row r="36" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="2:18" s="63" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="610" t="s">
+      <c r="B38" s="611" t="s">
         <v>259</v>
       </c>
-      <c r="C38" s="610"/>
+      <c r="C38" s="611"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
       <c r="F38" s="43"/>
@@ -36826,10 +36769,10 @@
     </row>
     <row r="42" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:18" s="63" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="610" t="s">
+      <c r="B43" s="611" t="s">
         <v>262</v>
       </c>
-      <c r="C43" s="610"/>
+      <c r="C43" s="611"/>
     </row>
     <row r="44" spans="2:18" s="63" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B44" s="408" t="s">
@@ -36957,10 +36900,10 @@
       <c r="B4" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="615" t="s">
+      <c r="C4" s="616" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="175"/>
       <c r="F4" s="175"/>
       <c r="G4" s="175"/>
@@ -37017,18 +36960,18 @@
       <c r="A7" s="173"/>
       <c r="B7" s="63"/>
       <c r="C7" s="126"/>
-      <c r="D7" s="607"/>
-      <c r="E7" s="607"/>
-      <c r="F7" s="607"/>
-      <c r="G7" s="607"/>
-      <c r="H7" s="607"/>
-      <c r="I7" s="607"/>
-      <c r="J7" s="607"/>
-      <c r="K7" s="607"/>
-      <c r="L7" s="607"/>
-      <c r="M7" s="607"/>
-      <c r="N7" s="607"/>
-      <c r="O7" s="607"/>
+      <c r="D7" s="608"/>
+      <c r="E7" s="608"/>
+      <c r="F7" s="608"/>
+      <c r="G7" s="608"/>
+      <c r="H7" s="608"/>
+      <c r="I7" s="608"/>
+      <c r="J7" s="608"/>
+      <c r="K7" s="608"/>
+      <c r="L7" s="608"/>
+      <c r="M7" s="608"/>
+      <c r="N7" s="608"/>
+      <c r="O7" s="608"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="173"/>
@@ -37294,51 +37237,51 @@
         <v>152</v>
       </c>
       <c r="C14" s="183">
-        <f>[2]Operating_Costs!$F$4</f>
+        <f>[1]Operating_Costs!$F$4</f>
         <v>333.33333333333331</v>
       </c>
       <c r="D14" s="183">
-        <f>[2]Operating_Costs!$F$4</f>
+        <f>[1]Operating_Costs!$F$4</f>
         <v>333.33333333333331</v>
       </c>
       <c r="E14" s="183">
-        <f>[2]Operating_Costs!$F$4</f>
+        <f>[1]Operating_Costs!$F$4</f>
         <v>333.33333333333331</v>
       </c>
       <c r="F14" s="183">
-        <f>[2]Operating_Costs!$F$4</f>
+        <f>[1]Operating_Costs!$F$4</f>
         <v>333.33333333333331</v>
       </c>
       <c r="G14" s="183">
-        <f>[2]Operating_Costs!$F$4</f>
+        <f>[1]Operating_Costs!$F$4</f>
         <v>333.33333333333331</v>
       </c>
       <c r="H14" s="183">
-        <f>[2]Operating_Costs!$F$4</f>
+        <f>[1]Operating_Costs!$F$4</f>
         <v>333.33333333333331</v>
       </c>
       <c r="I14" s="183">
-        <f>[2]Operating_Costs!$F$4</f>
+        <f>[1]Operating_Costs!$F$4</f>
         <v>333.33333333333331</v>
       </c>
       <c r="J14" s="183">
-        <f>[2]Operating_Costs!$F$4</f>
+        <f>[1]Operating_Costs!$F$4</f>
         <v>333.33333333333331</v>
       </c>
       <c r="K14" s="183">
-        <f>[2]Operating_Costs!$F$4</f>
+        <f>[1]Operating_Costs!$F$4</f>
         <v>333.33333333333331</v>
       </c>
       <c r="L14" s="183">
-        <f>[2]Operating_Costs!$F$4</f>
+        <f>[1]Operating_Costs!$F$4</f>
         <v>333.33333333333331</v>
       </c>
       <c r="M14" s="183">
-        <f>[2]Operating_Costs!$F$4</f>
+        <f>[1]Operating_Costs!$F$4</f>
         <v>333.33333333333331</v>
       </c>
       <c r="N14" s="183">
-        <f>[2]Operating_Costs!$F$4</f>
+        <f>[1]Operating_Costs!$F$4</f>
         <v>333.33333333333331</v>
       </c>
       <c r="O14" s="82">
@@ -37582,51 +37525,51 @@
         <v>157</v>
       </c>
       <c r="C20" s="183">
-        <f>[2]Operating_Costs!$F$10</f>
+        <f>[1]Operating_Costs!$F$10</f>
         <v>166.66666666666666</v>
       </c>
       <c r="D20" s="183">
-        <f>[2]Operating_Costs!$F$10</f>
+        <f>[1]Operating_Costs!$F$10</f>
         <v>166.66666666666666</v>
       </c>
       <c r="E20" s="183">
-        <f>[2]Operating_Costs!$F$10</f>
+        <f>[1]Operating_Costs!$F$10</f>
         <v>166.66666666666666</v>
       </c>
       <c r="F20" s="183">
-        <f>[2]Operating_Costs!$F$10</f>
+        <f>[1]Operating_Costs!$F$10</f>
         <v>166.66666666666666</v>
       </c>
       <c r="G20" s="183">
-        <f>[2]Operating_Costs!$F$10</f>
+        <f>[1]Operating_Costs!$F$10</f>
         <v>166.66666666666666</v>
       </c>
       <c r="H20" s="183">
-        <f>[2]Operating_Costs!$F$10</f>
+        <f>[1]Operating_Costs!$F$10</f>
         <v>166.66666666666666</v>
       </c>
       <c r="I20" s="183">
-        <f>[2]Operating_Costs!$F$10</f>
+        <f>[1]Operating_Costs!$F$10</f>
         <v>166.66666666666666</v>
       </c>
       <c r="J20" s="183">
-        <f>[2]Operating_Costs!$F$10</f>
+        <f>[1]Operating_Costs!$F$10</f>
         <v>166.66666666666666</v>
       </c>
       <c r="K20" s="183">
-        <f>[2]Operating_Costs!$F$10</f>
+        <f>[1]Operating_Costs!$F$10</f>
         <v>166.66666666666666</v>
       </c>
       <c r="L20" s="183">
-        <f>[2]Operating_Costs!$F$10</f>
+        <f>[1]Operating_Costs!$F$10</f>
         <v>166.66666666666666</v>
       </c>
       <c r="M20" s="183">
-        <f>[2]Operating_Costs!$F$10</f>
+        <f>[1]Operating_Costs!$F$10</f>
         <v>166.66666666666666</v>
       </c>
       <c r="N20" s="183">
-        <f>[2]Operating_Costs!$F$10</f>
+        <f>[1]Operating_Costs!$F$10</f>
         <v>166.66666666666666</v>
       </c>
       <c r="O20" s="82">
@@ -37640,51 +37583,51 @@
         <v>5</v>
       </c>
       <c r="C21" s="183">
-        <f>[2]Operating_Costs!$F$9</f>
+        <f>[1]Operating_Costs!$F$9</f>
         <v>86.666666666666657</v>
       </c>
       <c r="D21" s="183">
-        <f>[2]Operating_Costs!$F$9</f>
+        <f>[1]Operating_Costs!$F$9</f>
         <v>86.666666666666657</v>
       </c>
       <c r="E21" s="183">
-        <f>[2]Operating_Costs!$F$9</f>
+        <f>[1]Operating_Costs!$F$9</f>
         <v>86.666666666666657</v>
       </c>
       <c r="F21" s="183">
-        <f>[2]Operating_Costs!$F$9</f>
+        <f>[1]Operating_Costs!$F$9</f>
         <v>86.666666666666657</v>
       </c>
       <c r="G21" s="183">
-        <f>[2]Operating_Costs!$F$9</f>
+        <f>[1]Operating_Costs!$F$9</f>
         <v>86.666666666666657</v>
       </c>
       <c r="H21" s="183">
-        <f>[2]Operating_Costs!$F$9</f>
+        <f>[1]Operating_Costs!$F$9</f>
         <v>86.666666666666657</v>
       </c>
       <c r="I21" s="183">
-        <f>[2]Operating_Costs!$F$9</f>
+        <f>[1]Operating_Costs!$F$9</f>
         <v>86.666666666666657</v>
       </c>
       <c r="J21" s="183">
-        <f>[2]Operating_Costs!$F$9</f>
+        <f>[1]Operating_Costs!$F$9</f>
         <v>86.666666666666657</v>
       </c>
       <c r="K21" s="183">
-        <f>[2]Operating_Costs!$F$9</f>
+        <f>[1]Operating_Costs!$F$9</f>
         <v>86.666666666666657</v>
       </c>
       <c r="L21" s="183">
-        <f>[2]Operating_Costs!$F$9</f>
+        <f>[1]Operating_Costs!$F$9</f>
         <v>86.666666666666657</v>
       </c>
       <c r="M21" s="183">
-        <f>[2]Operating_Costs!$F$9</f>
+        <f>[1]Operating_Costs!$F$9</f>
         <v>86.666666666666657</v>
       </c>
       <c r="N21" s="183">
-        <f>[2]Operating_Costs!$F$9</f>
+        <f>[1]Operating_Costs!$F$9</f>
         <v>86.666666666666657</v>
       </c>
       <c r="O21" s="82">
@@ -37720,51 +37663,51 @@
         <v>15</v>
       </c>
       <c r="C23" s="183">
-        <f>[2]Operating_Costs!$F$7+[2]Operating_Costs!$F$8+[2]Operating_Costs!$F$6</f>
+        <f>[1]Operating_Costs!$F$7+[1]Operating_Costs!$F$8+[1]Operating_Costs!$F$6</f>
         <v>707.77777777777783</v>
       </c>
       <c r="D23" s="183">
-        <f>[2]Operating_Costs!$F$7+[2]Operating_Costs!$F$8+[2]Operating_Costs!$F$6</f>
+        <f>[1]Operating_Costs!$F$7+[1]Operating_Costs!$F$8+[1]Operating_Costs!$F$6</f>
         <v>707.77777777777783</v>
       </c>
       <c r="E23" s="183">
-        <f>[2]Operating_Costs!$F$7+[2]Operating_Costs!$F$8+[2]Operating_Costs!$F$6</f>
+        <f>[1]Operating_Costs!$F$7+[1]Operating_Costs!$F$8+[1]Operating_Costs!$F$6</f>
         <v>707.77777777777783</v>
       </c>
       <c r="F23" s="183">
-        <f>[2]Operating_Costs!$F$7+[2]Operating_Costs!$F$8+[2]Operating_Costs!$F$6</f>
+        <f>[1]Operating_Costs!$F$7+[1]Operating_Costs!$F$8+[1]Operating_Costs!$F$6</f>
         <v>707.77777777777783</v>
       </c>
       <c r="G23" s="183">
-        <f>[2]Operating_Costs!$F$7+[2]Operating_Costs!$F$8+[2]Operating_Costs!$F$6</f>
+        <f>[1]Operating_Costs!$F$7+[1]Operating_Costs!$F$8+[1]Operating_Costs!$F$6</f>
         <v>707.77777777777783</v>
       </c>
       <c r="H23" s="183">
-        <f>[2]Operating_Costs!$F$7+[2]Operating_Costs!$F$8+[2]Operating_Costs!$F$6</f>
+        <f>[1]Operating_Costs!$F$7+[1]Operating_Costs!$F$8+[1]Operating_Costs!$F$6</f>
         <v>707.77777777777783</v>
       </c>
       <c r="I23" s="183">
-        <f>[2]Operating_Costs!$F$7+[2]Operating_Costs!$F$8+[2]Operating_Costs!$F$6</f>
+        <f>[1]Operating_Costs!$F$7+[1]Operating_Costs!$F$8+[1]Operating_Costs!$F$6</f>
         <v>707.77777777777783</v>
       </c>
       <c r="J23" s="183">
-        <f>[2]Operating_Costs!$F$7+[2]Operating_Costs!$F$8+[2]Operating_Costs!$F$6</f>
+        <f>[1]Operating_Costs!$F$7+[1]Operating_Costs!$F$8+[1]Operating_Costs!$F$6</f>
         <v>707.77777777777783</v>
       </c>
       <c r="K23" s="183">
-        <f>[2]Operating_Costs!$F$7+[2]Operating_Costs!$F$8+[2]Operating_Costs!$F$6</f>
+        <f>[1]Operating_Costs!$F$7+[1]Operating_Costs!$F$8+[1]Operating_Costs!$F$6</f>
         <v>707.77777777777783</v>
       </c>
       <c r="L23" s="183">
-        <f>[2]Operating_Costs!$F$7+[2]Operating_Costs!$F$8+[2]Operating_Costs!$F$6</f>
+        <f>[1]Operating_Costs!$F$7+[1]Operating_Costs!$F$8+[1]Operating_Costs!$F$6</f>
         <v>707.77777777777783</v>
       </c>
       <c r="M23" s="183">
-        <f>[2]Operating_Costs!$F$7+[2]Operating_Costs!$F$8+[2]Operating_Costs!$F$6</f>
+        <f>[1]Operating_Costs!$F$7+[1]Operating_Costs!$F$8+[1]Operating_Costs!$F$6</f>
         <v>707.77777777777783</v>
       </c>
       <c r="N23" s="183">
-        <f>[2]Operating_Costs!$F$7+[2]Operating_Costs!$F$8+[2]Operating_Costs!$F$6</f>
+        <f>[1]Operating_Costs!$F$7+[1]Operating_Costs!$F$8+[1]Operating_Costs!$F$6</f>
         <v>707.77777777777783</v>
       </c>
       <c r="O23" s="82">
@@ -38490,7 +38433,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C10:N24">
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="51" priority="2">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38530,10 +38473,10 @@
   <sheetData>
     <row r="1" spans="2:13" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="608" t="s">
+      <c r="B2" s="609" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="608"/>
+      <c r="C2" s="609"/>
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="190"/>
@@ -38567,13 +38510,13 @@
         <f>IF(ISBLANK(Directions!C6), "Owner", Directions!C6)</f>
         <v>Thomas Francis</v>
       </c>
-      <c r="C5" s="616" t="str">
+      <c r="C5" s="617" t="str">
         <f>IF(ISBLANK(Directions!D6), "Company 1", Directions!D6)</f>
         <v>The Soshow</v>
       </c>
-      <c r="D5" s="616"/>
-      <c r="E5" s="616"/>
-      <c r="F5" s="616"/>
+      <c r="D5" s="617"/>
+      <c r="E5" s="617"/>
+      <c r="F5" s="617"/>
       <c r="G5" s="194"/>
       <c r="I5" s="386"/>
       <c r="J5" s="386"/>
@@ -39243,7 +39186,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E26 G26">
-    <cfRule type="containsBlanks" dxfId="51" priority="3">
+    <cfRule type="containsBlanks" dxfId="50" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Finances/Projections.xlsx
+++ b/Finances/Projections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfrancis\OneDrive - Hearst\Documents\Custom Office Templates\dogen\Finances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="11_376AD7E749603A025F3A1731D194D6F8EB21230F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CCA8126D-C73F-4A38-805F-95E6A3904097}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="11_376AD7E749603A025F3A1731D194D6F8EB21230F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{39BEFBA9-A1A3-4CE1-9B43-B446F3DDE86E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Directions" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4417,49 +4419,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="51" fillId="12" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4472,9 +4433,6 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="12" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="51" fillId="12" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4492,6 +4450,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="50" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="50" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -4532,6 +4498,42 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5571,8 +5573,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5250179" y="1977390"/>
-          <a:ext cx="2600325" cy="1771651"/>
+          <a:off x="5252084" y="1977390"/>
+          <a:ext cx="2598420" cy="1767841"/>
           <a:chOff x="1525904" y="5981700"/>
           <a:chExt cx="2598420" cy="1767841"/>
         </a:xfrm>
@@ -6755,7 +6757,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Key_Assumptions_draft"/>
-      <sheetName val="Community_Engagement"/>
+      <sheetName val="Chart1"/>
       <sheetName val="Revenue_Profit_Balance"/>
       <sheetName val="Funding_And_Connections"/>
       <sheetName val="Comprehensive"/>
@@ -6775,7 +6777,7 @@
       <sheetName val="Eating Area"/>
       <sheetName val="decor"/>
       <sheetName val="Initial"/>
-      <sheetName val="Chart1"/>
+      <sheetName val="Community_Engagement"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -6826,11 +6828,6 @@
       </sheetData>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10">
-        <row r="3">
-          <cell r="H3">
-            <v>24.509803921568626</v>
-          </cell>
-        </row>
         <row r="4">
           <cell r="H4">
             <v>22.058823529411764</v>
@@ -7204,8 +7201,8 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.5"/>
@@ -7547,7 +7544,7 @@
   </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -8944,7 +8941,7 @@
   </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -11481,7 +11478,7 @@
   </sheetPr>
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
@@ -14569,7 +14566,7 @@
   </sheetPr>
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.35"/>
   <cols>
@@ -16729,7 +16726,7 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -18584,7 +18581,7 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -19618,7 +19615,7 @@
   <dimension ref="B2:Q159"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:G6"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.35"/>
@@ -25611,7 +25608,7 @@
   </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -25641,11 +25638,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="466"/>
-      <c r="B2" s="582" t="s">
+      <c r="B2" s="602" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="582"/>
-      <c r="D2" s="582"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="602"/>
       <c r="E2" s="466"/>
       <c r="F2" s="466"/>
       <c r="G2" s="466"/>
@@ -25715,10 +25712,10 @@
       <c r="D7" s="474" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="590" t="s">
+      <c r="E7" s="578" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="590"/>
+      <c r="F7" s="578"/>
       <c r="G7" s="475"/>
       <c r="H7" s="466"/>
       <c r="I7" s="466"/>
@@ -25729,8 +25726,8 @@
       <c r="B8" s="476"/>
       <c r="C8" s="477"/>
       <c r="D8" s="477"/>
-      <c r="E8" s="591"/>
-      <c r="F8" s="592"/>
+      <c r="E8" s="579"/>
+      <c r="F8" s="580"/>
       <c r="G8" s="478"/>
       <c r="H8" s="466"/>
       <c r="I8" s="466"/>
@@ -25747,10 +25744,10 @@
       <c r="D9" s="558" t="s">
         <v>354</v>
       </c>
-      <c r="E9" s="593" t="s">
+      <c r="E9" s="581" t="s">
         <v>379</v>
       </c>
-      <c r="F9" s="594"/>
+      <c r="F9" s="582"/>
       <c r="G9" s="478"/>
       <c r="H9" s="466"/>
       <c r="I9" s="466"/>
@@ -25767,10 +25764,10 @@
       <c r="D10" s="482">
         <v>20</v>
       </c>
-      <c r="E10" s="574" t="s">
+      <c r="E10" s="583" t="s">
         <v>379</v>
       </c>
-      <c r="F10" s="575"/>
+      <c r="F10" s="584"/>
       <c r="G10" s="483"/>
       <c r="H10" s="466"/>
       <c r="I10" s="466"/>
@@ -25788,8 +25785,8 @@
       <c r="D11" s="482">
         <v>7</v>
       </c>
-      <c r="E11" s="574"/>
-      <c r="F11" s="575"/>
+      <c r="E11" s="583"/>
+      <c r="F11" s="584"/>
       <c r="G11" s="483"/>
       <c r="H11" s="466"/>
       <c r="I11" s="466"/>
@@ -25807,8 +25804,8 @@
       <c r="D12" s="482">
         <v>7</v>
       </c>
-      <c r="E12" s="574"/>
-      <c r="F12" s="575"/>
+      <c r="E12" s="583"/>
+      <c r="F12" s="584"/>
       <c r="G12" s="483"/>
       <c r="H12" s="466"/>
       <c r="I12" s="466"/>
@@ -25826,8 +25823,8 @@
       <c r="D13" s="482">
         <v>5</v>
       </c>
-      <c r="E13" s="574"/>
-      <c r="F13" s="575"/>
+      <c r="E13" s="583"/>
+      <c r="F13" s="584"/>
       <c r="G13" s="483"/>
       <c r="H13" s="466"/>
       <c r="I13" s="466"/>
@@ -25844,8 +25841,8 @@
       <c r="D14" s="482">
         <v>5</v>
       </c>
-      <c r="E14" s="574"/>
-      <c r="F14" s="575"/>
+      <c r="E14" s="583"/>
+      <c r="F14" s="584"/>
       <c r="G14" s="483"/>
       <c r="H14" s="466"/>
       <c r="I14" s="466"/>
@@ -25862,10 +25859,10 @@
       <c r="D15" s="482">
         <v>5</v>
       </c>
-      <c r="E15" s="574" t="s">
+      <c r="E15" s="583" t="s">
         <v>378</v>
       </c>
-      <c r="F15" s="575"/>
+      <c r="F15" s="584"/>
       <c r="G15" s="483"/>
       <c r="H15" s="466"/>
       <c r="I15" s="466"/>
@@ -25881,8 +25878,8 @@
         <v>83495</v>
       </c>
       <c r="D16" s="486"/>
-      <c r="E16" s="598"/>
-      <c r="F16" s="599"/>
+      <c r="E16" s="588"/>
+      <c r="F16" s="589"/>
       <c r="G16" s="487"/>
       <c r="H16" s="466"/>
       <c r="I16" s="466"/>
@@ -25890,11 +25887,11 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="466"/>
-      <c r="B17" s="603"/>
-      <c r="C17" s="604"/>
-      <c r="D17" s="604"/>
-      <c r="E17" s="604"/>
-      <c r="F17" s="605"/>
+      <c r="B17" s="593"/>
+      <c r="C17" s="594"/>
+      <c r="D17" s="594"/>
+      <c r="E17" s="594"/>
+      <c r="F17" s="595"/>
       <c r="G17" s="488"/>
       <c r="H17" s="466"/>
       <c r="I17" s="466"/>
@@ -25907,11 +25904,11 @@
       <c r="C18" s="490" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="595" t="s">
+      <c r="D18" s="585" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="596"/>
-      <c r="F18" s="597"/>
+      <c r="E18" s="586"/>
+      <c r="F18" s="587"/>
       <c r="G18" s="466"/>
       <c r="H18" s="466"/>
       <c r="I18" s="466"/>
@@ -25924,11 +25921,11 @@
       <c r="C19" s="492">
         <v>0</v>
       </c>
-      <c r="D19" s="576" t="s">
+      <c r="D19" s="596" t="s">
         <v>386</v>
       </c>
-      <c r="E19" s="577"/>
-      <c r="F19" s="578"/>
+      <c r="E19" s="597"/>
+      <c r="F19" s="598"/>
       <c r="G19" s="466"/>
       <c r="H19" s="466"/>
       <c r="I19" s="466"/>
@@ -25941,11 +25938,11 @@
       <c r="C20" s="481">
         <v>5000</v>
       </c>
-      <c r="D20" s="586" t="s">
+      <c r="D20" s="575" t="s">
         <v>381</v>
       </c>
-      <c r="E20" s="587"/>
-      <c r="F20" s="588"/>
+      <c r="E20" s="576"/>
+      <c r="F20" s="577"/>
       <c r="G20" s="466"/>
       <c r="H20" s="466"/>
       <c r="I20" s="466"/>
@@ -25958,11 +25955,11 @@
       <c r="C21" s="481">
         <v>0</v>
       </c>
-      <c r="D21" s="586" t="s">
+      <c r="D21" s="575" t="s">
         <v>382</v>
       </c>
-      <c r="E21" s="587"/>
-      <c r="F21" s="588"/>
+      <c r="E21" s="576"/>
+      <c r="F21" s="577"/>
       <c r="G21" s="466"/>
       <c r="H21" s="466"/>
       <c r="I21" s="466"/>
@@ -25975,11 +25972,11 @@
       <c r="C22" s="481">
         <v>500</v>
       </c>
-      <c r="D22" s="586" t="s">
+      <c r="D22" s="575" t="s">
         <v>380</v>
       </c>
-      <c r="E22" s="587"/>
-      <c r="F22" s="588"/>
+      <c r="E22" s="576"/>
+      <c r="F22" s="577"/>
       <c r="G22" s="466"/>
       <c r="H22" s="466"/>
       <c r="I22" s="466"/>
@@ -25992,11 +25989,11 @@
       <c r="C23" s="481">
         <v>60000</v>
       </c>
-      <c r="D23" s="586" t="s">
+      <c r="D23" s="575" t="s">
         <v>389</v>
       </c>
-      <c r="E23" s="587"/>
-      <c r="F23" s="588"/>
+      <c r="E23" s="576"/>
+      <c r="F23" s="577"/>
       <c r="G23" s="466"/>
       <c r="H23" s="466"/>
       <c r="I23" s="466"/>
@@ -26009,11 +26006,11 @@
       <c r="C24" s="481">
         <v>0</v>
       </c>
-      <c r="D24" s="586" t="s">
+      <c r="D24" s="575" t="s">
         <v>383</v>
       </c>
-      <c r="E24" s="587"/>
-      <c r="F24" s="588"/>
+      <c r="E24" s="576"/>
+      <c r="F24" s="577"/>
       <c r="G24" s="466"/>
       <c r="H24" s="466"/>
       <c r="I24" s="466"/>
@@ -26026,11 +26023,11 @@
       <c r="C25" s="481">
         <v>1000</v>
       </c>
-      <c r="D25" s="586" t="s">
+      <c r="D25" s="575" t="s">
         <v>387</v>
       </c>
-      <c r="E25" s="587"/>
-      <c r="F25" s="588"/>
+      <c r="E25" s="576"/>
+      <c r="F25" s="577"/>
       <c r="G25" s="493"/>
       <c r="H25" s="466"/>
       <c r="I25" s="466"/>
@@ -26043,11 +26040,11 @@
       <c r="C26" s="481">
         <v>5000</v>
       </c>
-      <c r="D26" s="586" t="s">
+      <c r="D26" s="575" t="s">
         <v>388</v>
       </c>
-      <c r="E26" s="587"/>
-      <c r="F26" s="588"/>
+      <c r="E26" s="576"/>
+      <c r="F26" s="577"/>
       <c r="G26" s="466"/>
       <c r="H26" s="466"/>
       <c r="I26" s="466"/>
@@ -26060,11 +26057,11 @@
       <c r="C27" s="481">
         <v>0</v>
       </c>
-      <c r="D27" s="586" t="s">
+      <c r="D27" s="575" t="s">
         <v>384</v>
       </c>
-      <c r="E27" s="587"/>
-      <c r="F27" s="588"/>
+      <c r="E27" s="576"/>
+      <c r="F27" s="577"/>
       <c r="G27" s="466"/>
       <c r="H27" s="466"/>
       <c r="I27" s="466"/>
@@ -26077,11 +26074,11 @@
       <c r="C28" s="481">
         <v>500</v>
       </c>
-      <c r="D28" s="586" t="s">
+      <c r="D28" s="575" t="s">
         <v>385</v>
       </c>
-      <c r="E28" s="587"/>
-      <c r="F28" s="588"/>
+      <c r="E28" s="576"/>
+      <c r="F28" s="577"/>
       <c r="G28" s="466"/>
       <c r="H28" s="466"/>
       <c r="I28" s="466"/>
@@ -26095,11 +26092,11 @@
         <f>[1]Overhead!$B$18</f>
         <v>179983.33333333334</v>
       </c>
-      <c r="D29" s="586" t="s">
+      <c r="D29" s="575" t="s">
         <v>390</v>
       </c>
-      <c r="E29" s="587"/>
-      <c r="F29" s="588"/>
+      <c r="E29" s="576"/>
+      <c r="F29" s="577"/>
       <c r="G29" s="466"/>
       <c r="H29" s="466"/>
       <c r="I29" s="466"/>
@@ -26113,9 +26110,9 @@
         <f>SUM(C19:C29)</f>
         <v>251983.33333333334</v>
       </c>
-      <c r="D30" s="586"/>
-      <c r="E30" s="587"/>
-      <c r="F30" s="588"/>
+      <c r="D30" s="575"/>
+      <c r="E30" s="576"/>
+      <c r="F30" s="577"/>
       <c r="G30" s="466"/>
       <c r="H30" s="466"/>
       <c r="I30" s="466"/>
@@ -26129,9 +26126,9 @@
         <f>C16+C30</f>
         <v>335478.33333333337</v>
       </c>
-      <c r="D31" s="583"/>
-      <c r="E31" s="584"/>
-      <c r="F31" s="585"/>
+      <c r="D31" s="603"/>
+      <c r="E31" s="604"/>
+      <c r="F31" s="605"/>
       <c r="G31" s="466"/>
       <c r="H31" s="466"/>
       <c r="I31" s="466"/>
@@ -26262,11 +26259,11 @@
         <v>0</v>
       </c>
       <c r="H38" s="507"/>
-      <c r="J38" s="581" t="s">
+      <c r="J38" s="601" t="s">
         <v>250</v>
       </c>
-      <c r="K38" s="581"/>
-      <c r="L38" s="581"/>
+      <c r="K38" s="601"/>
+      <c r="L38" s="601"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="466"/>
@@ -26289,9 +26286,9 @@
         <v>0</v>
       </c>
       <c r="H39" s="507"/>
-      <c r="J39" s="581"/>
-      <c r="K39" s="581"/>
-      <c r="L39" s="581"/>
+      <c r="J39" s="601"/>
+      <c r="K39" s="601"/>
+      <c r="L39" s="601"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="466"/>
@@ -26314,9 +26311,9 @@
         <v>0</v>
       </c>
       <c r="H40" s="507"/>
-      <c r="J40" s="581"/>
-      <c r="K40" s="581"/>
-      <c r="L40" s="581"/>
+      <c r="J40" s="601"/>
+      <c r="K40" s="601"/>
+      <c r="L40" s="601"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="466"/>
@@ -26339,9 +26336,9 @@
         <v>0</v>
       </c>
       <c r="H41" s="512"/>
-      <c r="J41" s="581"/>
-      <c r="K41" s="581"/>
-      <c r="L41" s="581"/>
+      <c r="J41" s="601"/>
+      <c r="K41" s="601"/>
+      <c r="L41" s="601"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="466"/>
@@ -26356,10 +26353,10 @@
         <f>SUM(D34:D41)</f>
         <v>335478.33333333337</v>
       </c>
-      <c r="E42" s="579" t="s">
+      <c r="E42" s="599" t="s">
         <v>261</v>
       </c>
-      <c r="F42" s="580"/>
+      <c r="F42" s="600"/>
       <c r="G42" s="514">
         <f>SUM(G37:G41)</f>
         <v>0</v>
@@ -26376,12 +26373,12 @@
         <f>C31-D42</f>
         <v>0</v>
       </c>
-      <c r="E43" s="600" t="str">
+      <c r="E43" s="590" t="str">
         <f>IF(D43&gt;0,"You require more funding (Not Balanced)",IF(D43&lt;0,"Your funding exceeds your needs (Not Balanced)","You are fully funded (Balanced)"))</f>
         <v>You are fully funded (Balanced)</v>
       </c>
-      <c r="F43" s="601"/>
-      <c r="G43" s="602"/>
+      <c r="F43" s="591"/>
+      <c r="G43" s="592"/>
       <c r="H43" s="516"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
@@ -26407,10 +26404,10 @@
       <c r="H45" s="466"/>
     </row>
     <row r="46" spans="1:12" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="589" t="s">
+      <c r="B46" s="574" t="s">
         <v>232</v>
       </c>
-      <c r="C46" s="589"/>
+      <c r="C46" s="574"/>
       <c r="D46" s="519"/>
       <c r="E46" s="519"/>
       <c r="F46" s="519"/>
@@ -26488,6 +26485,20 @@
   </sheetData>
   <sheetProtection password="CC3D" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <mergeCells count="30">
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="J38:L41"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D28:F28"/>
@@ -26504,20 +26515,6 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="J38:L41"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C9:C15 C19:C29 D34:D35 D37:D41">
@@ -26563,7 +26560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -26723,7 +26720,7 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -29427,7 +29424,7 @@
   </sheetPr>
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -31797,8 +31794,8 @@
   </sheetPr>
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="M8" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.35"/>
@@ -31812,7 +31809,7 @@
     <col min="7" max="7" width="9.44140625" style="63" customWidth="1"/>
     <col min="8" max="8" width="9" style="71" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" style="71" customWidth="1"/>
-    <col min="10" max="10" width="9" style="71" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="71" customWidth="1"/>
     <col min="11" max="11" width="11.88671875" style="71" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="71" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11.33203125" style="71" bestFit="1" customWidth="1"/>
@@ -31821,7 +31818,8 @@
     <col min="17" max="17" width="11.33203125" style="71" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.88671875" style="71"/>
     <col min="19" max="19" width="10.33203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="8.88671875" style="71"/>
+    <col min="20" max="24" width="8.88671875" style="71"/>
+    <col min="25" max="25" width="9.88671875" style="71" customWidth="1"/>
     <col min="26" max="26" width="11.88671875" style="71" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.5546875" style="71" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="11.33203125" style="71" bestFit="1" customWidth="1"/>
@@ -36116,7 +36114,7 @@
   </sheetPr>
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
@@ -36826,8 +36824,8 @@
   </sheetPr>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.35"/>
